--- a/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
+++ b/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\joao\src\Github\ISEP-MATCP-2022-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\joao\src\Github\ISEP-MATCP-2022-2023\Trabalho 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E755A4D4-D118-412C-A42E-795E2C1AE185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB3494C-0AB1-45F8-94BF-812119D319FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="1" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="1DXXX_dados" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="37">
   <si>
     <t>Número</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Dados do enunciado</t>
   </si>
   <si>
-    <t>Total de visitas</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -117,13 +114,7 @@
     <t>Não vendido</t>
   </si>
   <si>
-    <t>comercializados (%)</t>
-  </si>
-  <si>
     <t>b)</t>
-  </si>
-  <si>
-    <t>X = Supondo que uma visita resultou em venda</t>
   </si>
   <si>
     <t>X</t>
@@ -131,15 +122,34 @@
   <si>
     <t>F(X)</t>
   </si>
+  <si>
+    <t>Total de vendidos</t>
+  </si>
+  <si>
+    <t>X =  o número de clientes que compra um apartamento T5</t>
+  </si>
+  <si>
+    <t>P (T0 | venda)</t>
+  </si>
+  <si>
+    <t>f(X) - Probabilidade da ocorrência de X</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>X - apartamentos que foram comercializados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,13 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -215,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +236,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -383,13 +398,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -457,31 +508,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -582,13 +662,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -611,6 +684,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -963,7 +1043,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0831DD52-7B95-4EAC-B65B-C512A269BD81}" name="Tabela143" displayName="Tabela143" ref="B5:E205" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0831DD52-7B95-4EAC-B65B-C512A269BD81}" name="Tabela143" displayName="Tabela143" ref="B5:E205" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{507C1A74-29A2-4120-AF79-77DC0E2EE6E5}" name="Visita Id" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4DDC0184-54E0-4ACE-9DDC-A78B2ADF1ED4}" name="Data de visita" dataDxfId="2"/>
@@ -1277,21 +1357,21 @@
       <selection activeCell="E3" sqref="E3:H203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="46.75" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1221694</v>
       </c>
@@ -1325,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1221121</v>
       </c>
@@ -1348,7 +1428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1220754</v>
       </c>
@@ -1372,7 +1452,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1210787</v>
       </c>
@@ -1395,7 +1475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>1210998</v>
       </c>
@@ -1418,7 +1498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>1211146</v>
       </c>
@@ -1441,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1458,7 +1538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E10" s="21">
         <v>7</v>
       </c>
@@ -1472,7 +1552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E11" s="21">
         <v>8</v>
       </c>
@@ -1486,7 +1566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E12" s="21">
         <v>9</v>
       </c>
@@ -1500,7 +1580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E13" s="21">
         <v>10</v>
       </c>
@@ -1514,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E14" s="21">
         <v>11</v>
       </c>
@@ -1528,7 +1608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E15" s="21">
         <v>12</v>
       </c>
@@ -1542,7 +1622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E16" s="21">
         <v>13</v>
       </c>
@@ -1556,7 +1636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E17" s="21">
         <v>14</v>
       </c>
@@ -1570,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E18" s="21">
         <v>15</v>
       </c>
@@ -1584,7 +1664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E19" s="21">
         <v>16</v>
       </c>
@@ -1598,7 +1678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E20" s="21">
         <v>17</v>
       </c>
@@ -1612,7 +1692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E21" s="21">
         <v>18</v>
       </c>
@@ -1626,7 +1706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E22" s="21">
         <v>19</v>
       </c>
@@ -1640,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E23" s="21">
         <v>20</v>
       </c>
@@ -1654,7 +1734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E24" s="21">
         <v>21</v>
       </c>
@@ -1668,7 +1748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E25" s="21">
         <v>22</v>
       </c>
@@ -1682,7 +1762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E26" s="21">
         <v>23</v>
       </c>
@@ -1696,7 +1776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E27" s="21">
         <v>24</v>
       </c>
@@ -1710,7 +1790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E28" s="21">
         <v>25</v>
       </c>
@@ -1724,7 +1804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E29" s="21">
         <v>26</v>
       </c>
@@ -1738,7 +1818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E30" s="21">
         <v>27</v>
       </c>
@@ -1752,7 +1832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E31" s="21">
         <v>28</v>
       </c>
@@ -1766,7 +1846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E32" s="21">
         <v>29</v>
       </c>
@@ -1780,7 +1860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E33" s="21">
         <v>30</v>
       </c>
@@ -1794,7 +1874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E34" s="21">
         <v>31</v>
       </c>
@@ -1808,7 +1888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E35" s="21">
         <v>32</v>
       </c>
@@ -1822,7 +1902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E36" s="21">
         <v>33</v>
       </c>
@@ -1836,7 +1916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E37" s="21">
         <v>34</v>
       </c>
@@ -1850,7 +1930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E38" s="21">
         <v>35</v>
       </c>
@@ -1864,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E39" s="21">
         <v>36</v>
       </c>
@@ -1878,7 +1958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E40" s="21">
         <v>37</v>
       </c>
@@ -1892,7 +1972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E41" s="21">
         <v>38</v>
       </c>
@@ -1906,7 +1986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E42" s="21">
         <v>39</v>
       </c>
@@ -1920,7 +2000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E43" s="21">
         <v>40</v>
       </c>
@@ -1934,7 +2014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E44" s="21">
         <v>41</v>
       </c>
@@ -1948,7 +2028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E45" s="21">
         <v>42</v>
       </c>
@@ -1962,7 +2042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E46" s="21">
         <v>43</v>
       </c>
@@ -1976,7 +2056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E47" s="21">
         <v>44</v>
       </c>
@@ -1990,7 +2070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E48" s="21">
         <v>45</v>
       </c>
@@ -2004,7 +2084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E49" s="21">
         <v>46</v>
       </c>
@@ -2018,7 +2098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E50" s="21">
         <v>47</v>
       </c>
@@ -2032,7 +2112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E51" s="21">
         <v>48</v>
       </c>
@@ -2046,7 +2126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E52" s="21">
         <v>49</v>
       </c>
@@ -2060,7 +2140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E53" s="21">
         <v>50</v>
       </c>
@@ -2074,7 +2154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E54" s="21">
         <v>51</v>
       </c>
@@ -2088,7 +2168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E55" s="21">
         <v>52</v>
       </c>
@@ -2102,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E56" s="21">
         <v>53</v>
       </c>
@@ -2116,7 +2196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E57" s="21">
         <v>54</v>
       </c>
@@ -2130,7 +2210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E58" s="21">
         <v>55</v>
       </c>
@@ -2144,7 +2224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E59" s="21">
         <v>56</v>
       </c>
@@ -2158,7 +2238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E60" s="21">
         <v>57</v>
       </c>
@@ -2172,7 +2252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E61" s="21">
         <v>58</v>
       </c>
@@ -2186,7 +2266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E62" s="21">
         <v>59</v>
       </c>
@@ -2200,7 +2280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E63" s="21">
         <v>60</v>
       </c>
@@ -2214,7 +2294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E64" s="21">
         <v>61</v>
       </c>
@@ -2228,7 +2308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E65" s="21">
         <v>62</v>
       </c>
@@ -2242,7 +2322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E66" s="21">
         <v>63</v>
       </c>
@@ -2256,7 +2336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E67" s="21">
         <v>64</v>
       </c>
@@ -2270,7 +2350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E68" s="21">
         <v>65</v>
       </c>
@@ -2284,7 +2364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E69" s="21">
         <v>66</v>
       </c>
@@ -2298,7 +2378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E70" s="21">
         <v>67</v>
       </c>
@@ -2312,7 +2392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E71" s="21">
         <v>68</v>
       </c>
@@ -2326,7 +2406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E72" s="21">
         <v>69</v>
       </c>
@@ -2340,7 +2420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E73" s="21">
         <v>70</v>
       </c>
@@ -2354,7 +2434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E74" s="21">
         <v>71</v>
       </c>
@@ -2368,7 +2448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E75" s="21">
         <v>72</v>
       </c>
@@ -2382,7 +2462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E76" s="21">
         <v>73</v>
       </c>
@@ -2396,7 +2476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E77" s="21">
         <v>74</v>
       </c>
@@ -2410,7 +2490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E78" s="21">
         <v>75</v>
       </c>
@@ -2424,7 +2504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E79" s="21">
         <v>76</v>
       </c>
@@ -2438,7 +2518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E80" s="21">
         <v>77</v>
       </c>
@@ -2452,7 +2532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E81" s="21">
         <v>78</v>
       </c>
@@ -2466,7 +2546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E82" s="21">
         <v>79</v>
       </c>
@@ -2480,7 +2560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E83" s="21">
         <v>80</v>
       </c>
@@ -2494,7 +2574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E84" s="21">
         <v>81</v>
       </c>
@@ -2508,7 +2588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E85" s="21">
         <v>82</v>
       </c>
@@ -2522,7 +2602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E86" s="21">
         <v>83</v>
       </c>
@@ -2536,7 +2616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E87" s="21">
         <v>84</v>
       </c>
@@ -2550,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E88" s="21">
         <v>85</v>
       </c>
@@ -2564,7 +2644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E89" s="21">
         <v>86</v>
       </c>
@@ -2578,7 +2658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E90" s="21">
         <v>87</v>
       </c>
@@ -2592,7 +2672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E91" s="21">
         <v>88</v>
       </c>
@@ -2606,7 +2686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E92" s="21">
         <v>89</v>
       </c>
@@ -2620,7 +2700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E93" s="21">
         <v>90</v>
       </c>
@@ -2634,7 +2714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E94" s="21">
         <v>91</v>
       </c>
@@ -2648,7 +2728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E95" s="21">
         <v>92</v>
       </c>
@@ -2662,7 +2742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E96" s="21">
         <v>93</v>
       </c>
@@ -2676,7 +2756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E97" s="21">
         <v>94</v>
       </c>
@@ -2690,7 +2770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E98" s="21">
         <v>95</v>
       </c>
@@ -2704,7 +2784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E99" s="21">
         <v>96</v>
       </c>
@@ -2718,7 +2798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E100" s="21">
         <v>97</v>
       </c>
@@ -2732,7 +2812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E101" s="21">
         <v>98</v>
       </c>
@@ -2746,7 +2826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E102" s="21">
         <v>99</v>
       </c>
@@ -2760,7 +2840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E103" s="21">
         <v>100</v>
       </c>
@@ -2774,7 +2854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E104" s="21">
         <v>101</v>
       </c>
@@ -2788,7 +2868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E105" s="21">
         <v>102</v>
       </c>
@@ -2802,7 +2882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E106" s="21">
         <v>103</v>
       </c>
@@ -2816,7 +2896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E107" s="21">
         <v>104</v>
       </c>
@@ -2830,7 +2910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E108" s="21">
         <v>105</v>
       </c>
@@ -2844,7 +2924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E109" s="21">
         <v>106</v>
       </c>
@@ -2858,7 +2938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E110" s="21">
         <v>107</v>
       </c>
@@ -2872,7 +2952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E111" s="21">
         <v>108</v>
       </c>
@@ -2886,7 +2966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E112" s="21">
         <v>109</v>
       </c>
@@ -2900,7 +2980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E113" s="21">
         <v>110</v>
       </c>
@@ -2914,7 +2994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E114" s="21">
         <v>111</v>
       </c>
@@ -2928,7 +3008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E115" s="21">
         <v>112</v>
       </c>
@@ -2942,7 +3022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E116" s="21">
         <v>113</v>
       </c>
@@ -2956,7 +3036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E117" s="21">
         <v>114</v>
       </c>
@@ -2970,7 +3050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E118" s="21">
         <v>115</v>
       </c>
@@ -2984,7 +3064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E119" s="21">
         <v>116</v>
       </c>
@@ -2998,7 +3078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E120" s="21">
         <v>117</v>
       </c>
@@ -3012,7 +3092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E121" s="21">
         <v>118</v>
       </c>
@@ -3026,7 +3106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E122" s="21">
         <v>119</v>
       </c>
@@ -3040,7 +3120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E123" s="21">
         <v>120</v>
       </c>
@@ -3054,7 +3134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E124" s="21">
         <v>121</v>
       </c>
@@ -3068,7 +3148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E125" s="21">
         <v>122</v>
       </c>
@@ -3082,7 +3162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E126" s="21">
         <v>123</v>
       </c>
@@ -3096,7 +3176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E127" s="21">
         <v>124</v>
       </c>
@@ -3110,7 +3190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E128" s="21">
         <v>125</v>
       </c>
@@ -3124,7 +3204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E129" s="21">
         <v>126</v>
       </c>
@@ -3138,7 +3218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E130" s="21">
         <v>127</v>
       </c>
@@ -3152,7 +3232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E131" s="21">
         <v>128</v>
       </c>
@@ -3166,7 +3246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E132" s="21">
         <v>129</v>
       </c>
@@ -3180,7 +3260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E133" s="21">
         <v>130</v>
       </c>
@@ -3194,7 +3274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E134" s="21">
         <v>131</v>
       </c>
@@ -3208,7 +3288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E135" s="21">
         <v>132</v>
       </c>
@@ -3222,7 +3302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E136" s="21">
         <v>133</v>
       </c>
@@ -3236,7 +3316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E137" s="21">
         <v>134</v>
       </c>
@@ -3250,7 +3330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E138" s="21">
         <v>135</v>
       </c>
@@ -3264,7 +3344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E139" s="21">
         <v>136</v>
       </c>
@@ -3278,7 +3358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E140" s="21">
         <v>137</v>
       </c>
@@ -3292,7 +3372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E141" s="21">
         <v>138</v>
       </c>
@@ -3306,7 +3386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E142" s="21">
         <v>139</v>
       </c>
@@ -3320,7 +3400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E143" s="21">
         <v>140</v>
       </c>
@@ -3334,7 +3414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E144" s="21">
         <v>141</v>
       </c>
@@ -3348,7 +3428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E145" s="21">
         <v>142</v>
       </c>
@@ -3362,7 +3442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E146" s="21">
         <v>143</v>
       </c>
@@ -3376,7 +3456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E147" s="21">
         <v>144</v>
       </c>
@@ -3390,7 +3470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E148" s="21">
         <v>145</v>
       </c>
@@ -3404,7 +3484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E149" s="21">
         <v>146</v>
       </c>
@@ -3418,7 +3498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E150" s="21">
         <v>147</v>
       </c>
@@ -3432,7 +3512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E151" s="21">
         <v>148</v>
       </c>
@@ -3446,7 +3526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E152" s="21">
         <v>149</v>
       </c>
@@ -3460,7 +3540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E153" s="21">
         <v>150</v>
       </c>
@@ -3474,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E154" s="21">
         <v>151</v>
       </c>
@@ -3488,7 +3568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E155" s="21">
         <v>152</v>
       </c>
@@ -3502,7 +3582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E156" s="21">
         <v>153</v>
       </c>
@@ -3516,7 +3596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E157" s="21">
         <v>154</v>
       </c>
@@ -3530,7 +3610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E158" s="21">
         <v>155</v>
       </c>
@@ -3544,7 +3624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E159" s="21">
         <v>156</v>
       </c>
@@ -3558,7 +3638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E160" s="21">
         <v>157</v>
       </c>
@@ -3572,7 +3652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E161" s="21">
         <v>158</v>
       </c>
@@ -3586,7 +3666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E162" s="21">
         <v>159</v>
       </c>
@@ -3600,7 +3680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E163" s="21">
         <v>160</v>
       </c>
@@ -3614,7 +3694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E164" s="21">
         <v>161</v>
       </c>
@@ -3628,7 +3708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E165" s="21">
         <v>162</v>
       </c>
@@ -3642,7 +3722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E166" s="21">
         <v>163</v>
       </c>
@@ -3656,7 +3736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E167" s="21">
         <v>164</v>
       </c>
@@ -3670,7 +3750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E168" s="21">
         <v>165</v>
       </c>
@@ -3684,7 +3764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E169" s="21">
         <v>166</v>
       </c>
@@ -3698,7 +3778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E170" s="21">
         <v>167</v>
       </c>
@@ -3712,7 +3792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E171" s="21">
         <v>168</v>
       </c>
@@ -3726,7 +3806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E172" s="21">
         <v>169</v>
       </c>
@@ -3740,7 +3820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E173" s="21">
         <v>170</v>
       </c>
@@ -3754,7 +3834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E174" s="21">
         <v>171</v>
       </c>
@@ -3768,7 +3848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E175" s="21">
         <v>172</v>
       </c>
@@ -3782,7 +3862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E176" s="21">
         <v>173</v>
       </c>
@@ -3796,7 +3876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E177" s="21">
         <v>174</v>
       </c>
@@ -3810,7 +3890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E178" s="21">
         <v>175</v>
       </c>
@@ -3824,7 +3904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E179" s="21">
         <v>176</v>
       </c>
@@ -3838,7 +3918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E180" s="21">
         <v>177</v>
       </c>
@@ -3852,7 +3932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E181" s="21">
         <v>178</v>
       </c>
@@ -3866,7 +3946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E182" s="21">
         <v>179</v>
       </c>
@@ -3880,7 +3960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E183" s="21">
         <v>180</v>
       </c>
@@ -3894,7 +3974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E184" s="21">
         <v>181</v>
       </c>
@@ -3908,7 +3988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E185" s="21">
         <v>182</v>
       </c>
@@ -3922,7 +4002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E186" s="21">
         <v>183</v>
       </c>
@@ -3936,7 +4016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E187" s="21">
         <v>184</v>
       </c>
@@ -3950,7 +4030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E188" s="21">
         <v>185</v>
       </c>
@@ -3964,7 +4044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E189" s="21">
         <v>186</v>
       </c>
@@ -3978,7 +4058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E190" s="21">
         <v>187</v>
       </c>
@@ -3992,7 +4072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E191" s="21">
         <v>188</v>
       </c>
@@ -4006,7 +4086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E192" s="21">
         <v>189</v>
       </c>
@@ -4020,7 +4100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E193" s="21">
         <v>190</v>
       </c>
@@ -4034,7 +4114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E194" s="21">
         <v>191</v>
       </c>
@@ -4048,7 +4128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E195" s="21">
         <v>192</v>
       </c>
@@ -4062,7 +4142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E196" s="21">
         <v>193</v>
       </c>
@@ -4076,7 +4156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E197" s="21">
         <v>194</v>
       </c>
@@ -4090,7 +4170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E198" s="21">
         <v>195</v>
       </c>
@@ -4104,7 +4184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E199" s="21">
         <v>196</v>
       </c>
@@ -4118,7 +4198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E200" s="21">
         <v>197</v>
       </c>
@@ -4132,7 +4212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E201" s="21">
         <v>198</v>
       </c>
@@ -4146,7 +4226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E202" s="21">
         <v>199</v>
       </c>
@@ -4160,7 +4240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E203" s="23">
         <v>200</v>
       </c>
@@ -4187,29 +4267,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A990CD-725A-0E49-A453-E6B6F139DF19}">
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="12" max="12" width="10.875"/>
-    <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.875"/>
+    <col min="7" max="7" width="6.58203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4219,7 +4300,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="27" t="s">
         <v>24</v>
       </c>
@@ -4227,7 +4308,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="8"/>
@@ -4235,12 +4316,33 @@
       <c r="N3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
@@ -4253,13 +4355,39 @@
       <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="29">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T0")</f>
+        <v>21</v>
+      </c>
+      <c r="J5" s="29">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T1")</f>
+        <v>20</v>
+      </c>
+      <c r="K5" s="29">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T2")</f>
+        <v>14</v>
+      </c>
+      <c r="L5" s="29">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T3")</f>
+        <v>13</v>
+      </c>
+      <c r="M5" s="29">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T4")</f>
+        <v>13</v>
+      </c>
+      <c r="N5" s="29">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T5")</f>
+        <v>17</v>
+      </c>
+      <c r="O5" s="29">
+        <f>SUM(I5:N5)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -4272,12 +4400,39 @@
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6">
-        <f>COUNTA(E6:E205)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="29">
+        <f>COUNTIFS($E6:$E205,"Não",$D6:$D205,"T0")</f>
+        <v>22</v>
+      </c>
+      <c r="J6" s="29">
+        <f>COUNTIFS($E6:$E205,"Não",$D6:$D205,"T1")</f>
+        <v>18</v>
+      </c>
+      <c r="K6" s="29">
+        <f>COUNTIFS($E6:$E205,"Não",$D6:$D205,"T2")</f>
+        <v>15</v>
+      </c>
+      <c r="L6" s="29">
+        <f>COUNTIFS($E6:$E205,"Não",$D6:$D205,"T3")</f>
+        <v>15</v>
+      </c>
+      <c r="M6" s="29">
+        <f>COUNTIFS($E6:$E205,"Não",$D6:$D205,"T4")</f>
+        <v>17</v>
+      </c>
+      <c r="N6" s="29">
+        <f>COUNTIFS($E6:$E205,"Não",$D6:$D205,"T5")</f>
+        <v>15</v>
+      </c>
+      <c r="O6" s="29">
+        <f>SUM(I6:N6)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -4290,8 +4445,39 @@
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="29">
+        <f>SUM(I5:I6)</f>
+        <v>43</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" ref="J7" si="0">SUM(J5:J6)</f>
+        <v>38</v>
+      </c>
+      <c r="K7" s="29">
+        <f t="shared" ref="K7" si="1">SUM(K5:K6)</f>
+        <v>29</v>
+      </c>
+      <c r="L7" s="29">
+        <f t="shared" ref="L7" si="2">SUM(L5:L6)</f>
+        <v>28</v>
+      </c>
+      <c r="M7" s="29">
+        <f t="shared" ref="M7" si="3">SUM(M5:M6)</f>
+        <v>30</v>
+      </c>
+      <c r="N7" s="29">
+        <f t="shared" ref="N7" si="4">SUM(N5:N6)</f>
+        <v>32</v>
+      </c>
+      <c r="O7" s="29">
+        <f t="shared" ref="O7" si="5">SUM(O5:O6)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -4305,7 +4491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -4318,30 +4504,19 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G9" s="41"/>
+      <c r="H9" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -4354,39 +4529,19 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="30">
-        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T0")</f>
-        <v>21</v>
-      </c>
-      <c r="J10" s="30">
-        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T1")</f>
-        <v>20</v>
-      </c>
-      <c r="K10" s="30">
-        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T2")</f>
-        <v>14</v>
-      </c>
-      <c r="L10" s="30">
-        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T3")</f>
-        <v>13</v>
-      </c>
-      <c r="M10" s="30">
-        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T4")</f>
-        <v>13</v>
-      </c>
-      <c r="N10" s="30">
-        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T5")</f>
-        <v>17</v>
-      </c>
-      <c r="O10" s="30">
-        <f>SUM(I10:N10)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -4399,39 +4554,16 @@
       <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="30">
-        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T0")</f>
-        <v>22</v>
-      </c>
-      <c r="J11" s="30">
-        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T1")</f>
-        <v>18</v>
-      </c>
-      <c r="K11" s="30">
-        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T2")</f>
-        <v>15</v>
-      </c>
-      <c r="L11" s="30">
-        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T3")</f>
-        <v>15</v>
-      </c>
-      <c r="M11" s="30">
-        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T4")</f>
-        <v>17</v>
-      </c>
-      <c r="N11" s="30">
-        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T5")</f>
-        <v>15</v>
-      </c>
-      <c r="O11" s="30">
-        <f>SUM(I11:N11)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -4444,9 +4576,17 @@
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -4462,36 +4602,29 @@
       <c r="H13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="32">
-        <f>(I10/$H6)</f>
-        <v>0.105</v>
-      </c>
-      <c r="J13" s="32">
-        <f t="shared" ref="J13:O13" si="0">(J10/$H6)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="32">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L13" s="32">
-        <f t="shared" si="0"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M13" s="32">
-        <f t="shared" si="0"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N13" s="32">
-        <f t="shared" si="0"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="O13" s="32">
-        <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B14" s="21">
         <v>9</v>
       </c>
@@ -4504,8 +4637,39 @@
       <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="38">
+        <f>I5/$O5</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="J14" s="38">
+        <f t="shared" ref="J14:N14" si="6">J5/$O5</f>
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="K14" s="38">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L14" s="38">
+        <f t="shared" si="6"/>
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="M14" s="38">
+        <f t="shared" si="6"/>
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="N14" s="38">
+        <f t="shared" si="6"/>
+        <v>0.17346938775510204</v>
+      </c>
+      <c r="O14" s="39">
+        <f>SUM(I14:N14)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B15" s="21">
         <v>10</v>
       </c>
@@ -4519,7 +4683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B16" s="21">
         <v>11</v>
       </c>
@@ -4532,14 +4696,14 @@
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>30</v>
+      <c r="G16" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="21">
         <v>12</v>
       </c>
@@ -4553,7 +4717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="21">
         <v>13</v>
       </c>
@@ -4567,7 +4731,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>8</v>
@@ -4588,10 +4752,10 @@
         <v>11</v>
       </c>
       <c r="O18" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="21">
         <v>14</v>
       </c>
@@ -4605,38 +4769,38 @@
         <v>12</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="34">
-        <f>ROUND(I10/$O10,4)</f>
-        <v>0.21429999999999999</v>
-      </c>
-      <c r="J19" s="34">
-        <f t="shared" ref="J19:N19" si="1">ROUND(J10/$O10,4)</f>
-        <v>0.2041</v>
-      </c>
-      <c r="K19" s="34">
-        <f t="shared" si="1"/>
-        <v>0.1429</v>
-      </c>
-      <c r="L19" s="34">
-        <f t="shared" si="1"/>
-        <v>0.13270000000000001</v>
-      </c>
-      <c r="M19" s="34">
-        <f t="shared" si="1"/>
-        <v>0.13270000000000001</v>
-      </c>
-      <c r="N19" s="34">
-        <f t="shared" si="1"/>
-        <v>0.17349999999999999</v>
+        <v>30</v>
+      </c>
+      <c r="I19" s="32">
+        <f>I10/$I21</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="32">
+        <f t="shared" ref="J19:N19" si="7">J10/$I21</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
         <f>SUM(I19:N19)</f>
-        <v>1.0002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21">
         <v>15</v>
       </c>
@@ -4650,7 +4814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="21">
         <v>16</v>
       </c>
@@ -4663,8 +4827,14 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="21">
         <v>17</v>
       </c>
@@ -4678,7 +4848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="21">
         <v>18</v>
       </c>
@@ -4692,7 +4862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="21">
         <v>19</v>
       </c>
@@ -4706,7 +4876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="21">
         <v>20</v>
       </c>
@@ -4720,7 +4890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" s="21">
         <v>21</v>
       </c>
@@ -4734,7 +4904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="21">
         <v>22</v>
       </c>
@@ -4748,7 +4918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="21">
         <v>23</v>
       </c>
@@ -4762,7 +4932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="21">
         <v>24</v>
       </c>
@@ -4776,7 +4946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="21">
         <v>25</v>
       </c>
@@ -4790,7 +4960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" s="21">
         <v>26</v>
       </c>
@@ -4804,7 +4974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" s="21">
         <v>27</v>
       </c>
@@ -4818,7 +4988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="21">
         <v>28</v>
       </c>
@@ -4832,7 +5002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="21">
         <v>29</v>
       </c>
@@ -4846,7 +5016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="21">
         <v>30</v>
       </c>
@@ -4860,7 +5030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="21">
         <v>31</v>
       </c>
@@ -4874,7 +5044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="21">
         <v>32</v>
       </c>
@@ -4888,7 +5058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="21">
         <v>33</v>
       </c>
@@ -4902,7 +5072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="21">
         <v>34</v>
       </c>
@@ -4916,7 +5086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="21">
         <v>35</v>
       </c>
@@ -4931,7 +5101,7 @@
       </c>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="21">
         <v>36</v>
       </c>
@@ -4946,7 +5116,7 @@
       </c>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="21">
         <v>37</v>
       </c>
@@ -4960,7 +5130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="21">
         <v>38</v>
       </c>
@@ -4974,7 +5144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="21">
         <v>39</v>
       </c>
@@ -4988,7 +5158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="21">
         <v>40</v>
       </c>
@@ -5002,7 +5172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46" s="21">
         <v>41</v>
       </c>
@@ -5016,7 +5186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" s="21">
         <v>42</v>
       </c>
@@ -5030,7 +5200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" s="21">
         <v>43</v>
       </c>
@@ -5044,7 +5214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="21">
         <v>44</v>
       </c>
@@ -5058,7 +5228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="21">
         <v>45</v>
       </c>
@@ -5072,7 +5242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="21">
         <v>46</v>
       </c>
@@ -5086,7 +5256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="21">
         <v>47</v>
       </c>
@@ -5100,7 +5270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="21">
         <v>48</v>
       </c>
@@ -5114,7 +5284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="21">
         <v>49</v>
       </c>
@@ -5128,7 +5298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="21">
         <v>50</v>
       </c>
@@ -5142,7 +5312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="21">
         <v>51</v>
       </c>
@@ -5156,7 +5326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="21">
         <v>52</v>
       </c>
@@ -5170,7 +5340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="21">
         <v>53</v>
       </c>
@@ -5184,7 +5354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="21">
         <v>54</v>
       </c>
@@ -5198,7 +5368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="21">
         <v>55</v>
       </c>
@@ -5212,7 +5382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="21">
         <v>56</v>
       </c>
@@ -5226,7 +5396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="21">
         <v>57</v>
       </c>
@@ -5240,7 +5410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="21">
         <v>58</v>
       </c>
@@ -5254,7 +5424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="21">
         <v>59</v>
       </c>
@@ -5268,7 +5438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="21">
         <v>60</v>
       </c>
@@ -5282,7 +5452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="21">
         <v>61</v>
       </c>
@@ -5296,7 +5466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="21">
         <v>62</v>
       </c>
@@ -5310,7 +5480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="21">
         <v>63</v>
       </c>
@@ -5324,7 +5494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="21">
         <v>64</v>
       </c>
@@ -5338,7 +5508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="21">
         <v>65</v>
       </c>
@@ -5352,7 +5522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="21">
         <v>66</v>
       </c>
@@ -5366,7 +5536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="21">
         <v>67</v>
       </c>
@@ -5380,7 +5550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="21">
         <v>68</v>
       </c>
@@ -5394,7 +5564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="21">
         <v>69</v>
       </c>
@@ -5408,7 +5578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="21">
         <v>70</v>
       </c>
@@ -5422,7 +5592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="21">
         <v>71</v>
       </c>
@@ -5436,7 +5606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="21">
         <v>72</v>
       </c>
@@ -5450,7 +5620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="21">
         <v>73</v>
       </c>
@@ -5464,7 +5634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="21">
         <v>74</v>
       </c>
@@ -5478,7 +5648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="21">
         <v>75</v>
       </c>
@@ -5492,7 +5662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="21">
         <v>76</v>
       </c>
@@ -5506,7 +5676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="21">
         <v>77</v>
       </c>
@@ -5520,7 +5690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="21">
         <v>78</v>
       </c>
@@ -5534,7 +5704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="21">
         <v>79</v>
       </c>
@@ -5548,7 +5718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="21">
         <v>80</v>
       </c>
@@ -5562,7 +5732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="21">
         <v>81</v>
       </c>
@@ -5576,7 +5746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="21">
         <v>82</v>
       </c>
@@ -5590,7 +5760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="21">
         <v>83</v>
       </c>
@@ -5604,7 +5774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="21">
         <v>84</v>
       </c>
@@ -5618,7 +5788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="21">
         <v>85</v>
       </c>
@@ -5632,7 +5802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="21">
         <v>86</v>
       </c>
@@ -5646,7 +5816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="21">
         <v>87</v>
       </c>
@@ -5660,7 +5830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="21">
         <v>88</v>
       </c>
@@ -5674,7 +5844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="21">
         <v>89</v>
       </c>
@@ -5688,7 +5858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="21">
         <v>90</v>
       </c>
@@ -5702,7 +5872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="21">
         <v>91</v>
       </c>
@@ -5716,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="21">
         <v>92</v>
       </c>
@@ -5730,7 +5900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="21">
         <v>93</v>
       </c>
@@ -5744,7 +5914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="21">
         <v>94</v>
       </c>
@@ -5758,7 +5928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="21">
         <v>95</v>
       </c>
@@ -5772,7 +5942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="21">
         <v>96</v>
       </c>
@@ -5786,7 +5956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" s="21">
         <v>97</v>
       </c>
@@ -5800,7 +5970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B103" s="21">
         <v>98</v>
       </c>
@@ -5814,7 +5984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="21">
         <v>99</v>
       </c>
@@ -5828,7 +5998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="21">
         <v>100</v>
       </c>
@@ -5842,7 +6012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B106" s="21">
         <v>101</v>
       </c>
@@ -5856,7 +6026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B107" s="21">
         <v>102</v>
       </c>
@@ -5870,7 +6040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="21">
         <v>103</v>
       </c>
@@ -5884,7 +6054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B109" s="21">
         <v>104</v>
       </c>
@@ -5898,7 +6068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B110" s="21">
         <v>105</v>
       </c>
@@ -5912,7 +6082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="21">
         <v>106</v>
       </c>
@@ -5926,7 +6096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="21">
         <v>107</v>
       </c>
@@ -5940,7 +6110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" s="21">
         <v>108</v>
       </c>
@@ -5954,7 +6124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="21">
         <v>109</v>
       </c>
@@ -5968,7 +6138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="21">
         <v>110</v>
       </c>
@@ -5982,7 +6152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="21">
         <v>111</v>
       </c>
@@ -5996,7 +6166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B117" s="21">
         <v>112</v>
       </c>
@@ -6010,7 +6180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B118" s="21">
         <v>113</v>
       </c>
@@ -6024,7 +6194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B119" s="21">
         <v>114</v>
       </c>
@@ -6038,7 +6208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B120" s="21">
         <v>115</v>
       </c>
@@ -6052,7 +6222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B121" s="21">
         <v>116</v>
       </c>
@@ -6066,7 +6236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B122" s="21">
         <v>117</v>
       </c>
@@ -6080,7 +6250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B123" s="21">
         <v>118</v>
       </c>
@@ -6094,7 +6264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" s="21">
         <v>119</v>
       </c>
@@ -6108,7 +6278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B125" s="21">
         <v>120</v>
       </c>
@@ -6122,7 +6292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B126" s="21">
         <v>121</v>
       </c>
@@ -6136,7 +6306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B127" s="21">
         <v>122</v>
       </c>
@@ -6150,7 +6320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B128" s="21">
         <v>123</v>
       </c>
@@ -6164,7 +6334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B129" s="21">
         <v>124</v>
       </c>
@@ -6178,7 +6348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B130" s="21">
         <v>125</v>
       </c>
@@ -6192,7 +6362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B131" s="21">
         <v>126</v>
       </c>
@@ -6206,7 +6376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132" s="21">
         <v>127</v>
       </c>
@@ -6220,7 +6390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="21">
         <v>128</v>
       </c>
@@ -6234,7 +6404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134" s="21">
         <v>129</v>
       </c>
@@ -6248,7 +6418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135" s="21">
         <v>130</v>
       </c>
@@ -6262,7 +6432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="21">
         <v>131</v>
       </c>
@@ -6276,7 +6446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137" s="21">
         <v>132</v>
       </c>
@@ -6290,7 +6460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B138" s="21">
         <v>133</v>
       </c>
@@ -6304,7 +6474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B139" s="21">
         <v>134</v>
       </c>
@@ -6318,7 +6488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140" s="21">
         <v>135</v>
       </c>
@@ -6332,7 +6502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B141" s="21">
         <v>136</v>
       </c>
@@ -6346,7 +6516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B142" s="21">
         <v>137</v>
       </c>
@@ -6360,7 +6530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143" s="21">
         <v>138</v>
       </c>
@@ -6374,7 +6544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144" s="21">
         <v>139</v>
       </c>
@@ -6388,7 +6558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B145" s="21">
         <v>140</v>
       </c>
@@ -6402,7 +6572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B146" s="21">
         <v>141</v>
       </c>
@@ -6416,7 +6586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147" s="21">
         <v>142</v>
       </c>
@@ -6430,7 +6600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148" s="21">
         <v>143</v>
       </c>
@@ -6444,7 +6614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" s="21">
         <v>144</v>
       </c>
@@ -6458,7 +6628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B150" s="21">
         <v>145</v>
       </c>
@@ -6472,7 +6642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B151" s="21">
         <v>146</v>
       </c>
@@ -6486,7 +6656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B152" s="21">
         <v>147</v>
       </c>
@@ -6500,7 +6670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B153" s="21">
         <v>148</v>
       </c>
@@ -6514,7 +6684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B154" s="21">
         <v>149</v>
       </c>
@@ -6528,7 +6698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155" s="21">
         <v>150</v>
       </c>
@@ -6542,7 +6712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B156" s="21">
         <v>151</v>
       </c>
@@ -6556,7 +6726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B157" s="21">
         <v>152</v>
       </c>
@@ -6570,7 +6740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158" s="21">
         <v>153</v>
       </c>
@@ -6584,7 +6754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" s="21">
         <v>154</v>
       </c>
@@ -6598,7 +6768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B160" s="21">
         <v>155</v>
       </c>
@@ -6612,7 +6782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B161" s="21">
         <v>156</v>
       </c>
@@ -6626,7 +6796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="21">
         <v>157</v>
       </c>
@@ -6640,7 +6810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B163" s="21">
         <v>158</v>
       </c>
@@ -6654,7 +6824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B164" s="21">
         <v>159</v>
       </c>
@@ -6668,7 +6838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="21">
         <v>160</v>
       </c>
@@ -6682,7 +6852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="21">
         <v>161</v>
       </c>
@@ -6696,7 +6866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167" s="21">
         <v>162</v>
       </c>
@@ -6710,7 +6880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168" s="21">
         <v>163</v>
       </c>
@@ -6724,7 +6894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="21">
         <v>164</v>
       </c>
@@ -6738,7 +6908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="21">
         <v>165</v>
       </c>
@@ -6752,7 +6922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="21">
         <v>166</v>
       </c>
@@ -6766,7 +6936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B172" s="21">
         <v>167</v>
       </c>
@@ -6780,7 +6950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B173" s="21">
         <v>168</v>
       </c>
@@ -6794,7 +6964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B174" s="21">
         <v>169</v>
       </c>
@@ -6808,7 +6978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B175" s="21">
         <v>170</v>
       </c>
@@ -6822,7 +6992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B176" s="21">
         <v>171</v>
       </c>
@@ -6836,7 +7006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" s="21">
         <v>172</v>
       </c>
@@ -6850,7 +7020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B178" s="21">
         <v>173</v>
       </c>
@@ -6864,7 +7034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B179" s="21">
         <v>174</v>
       </c>
@@ -6878,7 +7048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180" s="21">
         <v>175</v>
       </c>
@@ -6892,7 +7062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181" s="21">
         <v>176</v>
       </c>
@@ -6906,7 +7076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B182" s="21">
         <v>177</v>
       </c>
@@ -6920,7 +7090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B183" s="21">
         <v>178</v>
       </c>
@@ -6934,7 +7104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184" s="21">
         <v>179</v>
       </c>
@@ -6948,7 +7118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B185" s="21">
         <v>180</v>
       </c>
@@ -6962,7 +7132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B186" s="21">
         <v>181</v>
       </c>
@@ -6976,7 +7146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187" s="21">
         <v>182</v>
       </c>
@@ -6990,7 +7160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" s="21">
         <v>183</v>
       </c>
@@ -7004,7 +7174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B189" s="21">
         <v>184</v>
       </c>
@@ -7018,7 +7188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B190" s="21">
         <v>185</v>
       </c>
@@ -7032,7 +7202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" s="21">
         <v>186</v>
       </c>
@@ -7046,7 +7216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" s="21">
         <v>187</v>
       </c>
@@ -7060,7 +7230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193" s="21">
         <v>188</v>
       </c>
@@ -7074,7 +7244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B194" s="21">
         <v>189</v>
       </c>
@@ -7088,7 +7258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B195" s="21">
         <v>190</v>
       </c>
@@ -7102,7 +7272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B196" s="21">
         <v>191</v>
       </c>
@@ -7116,7 +7286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B197" s="21">
         <v>192</v>
       </c>
@@ -7130,7 +7300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B198" s="21">
         <v>193</v>
       </c>
@@ -7144,7 +7314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199" s="21">
         <v>194</v>
       </c>
@@ -7158,7 +7328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B200" s="21">
         <v>195</v>
       </c>
@@ -7172,7 +7342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B201" s="21">
         <v>196</v>
       </c>
@@ -7186,7 +7356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202" s="21">
         <v>197</v>
       </c>
@@ -7200,7 +7370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203" s="21">
         <v>198</v>
       </c>
@@ -7214,7 +7384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B204" s="21">
         <v>199</v>
       </c>
@@ -7228,7 +7398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B205" s="23">
         <v>200</v>
       </c>
@@ -7243,6 +7413,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7257,25 +7431,25 @@
   <dimension ref="A1:Y205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="11" style="6"/>
-    <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -7285,7 +7459,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="33.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="34" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>24</v>
       </c>
@@ -7293,18 +7467,23 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="N3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
@@ -7320,7 +7499,7 @@
       <c r="I5" s="2"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -7334,7 +7513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -7348,7 +7527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -7362,7 +7541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -7378,7 +7557,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -7394,7 +7573,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -7408,7 +7587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -7423,7 +7602,7 @@
       </c>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -7437,7 +7616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B14" s="21">
         <v>9</v>
       </c>
@@ -7451,7 +7630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B15" s="21">
         <v>10</v>
       </c>
@@ -7465,7 +7644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B16" s="21">
         <v>11</v>
       </c>
@@ -7479,7 +7658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="21">
         <v>12</v>
       </c>
@@ -7493,7 +7672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="21">
         <v>13</v>
       </c>
@@ -7508,7 +7687,7 @@
       </c>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="21">
         <v>14</v>
       </c>
@@ -7522,7 +7701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="21">
         <v>15</v>
       </c>
@@ -7536,7 +7715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="21">
         <v>16</v>
       </c>
@@ -7550,7 +7729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="21">
         <v>17</v>
       </c>
@@ -7564,7 +7743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="21">
         <v>18</v>
       </c>
@@ -7578,7 +7757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="21">
         <v>19</v>
       </c>
@@ -7592,7 +7771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="21">
         <v>20</v>
       </c>
@@ -7606,7 +7785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="21">
         <v>21</v>
       </c>
@@ -7620,7 +7799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="21">
         <v>22</v>
       </c>
@@ -7634,7 +7813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="21">
         <v>23</v>
       </c>
@@ -7648,7 +7827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="21">
         <v>24</v>
       </c>
@@ -7662,7 +7841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="21">
         <v>25</v>
       </c>
@@ -7676,7 +7855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="21">
         <v>26</v>
       </c>
@@ -7690,7 +7869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="21">
         <v>27</v>
       </c>
@@ -7704,7 +7883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="21">
         <v>28</v>
       </c>
@@ -7718,7 +7897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="21">
         <v>29</v>
       </c>
@@ -7732,7 +7911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="21">
         <v>30</v>
       </c>
@@ -7746,7 +7925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="21">
         <v>31</v>
       </c>
@@ -7760,7 +7939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="21">
         <v>32</v>
       </c>
@@ -7774,7 +7953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="21">
         <v>33</v>
       </c>
@@ -7788,7 +7967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="21">
         <v>34</v>
       </c>
@@ -7802,7 +7981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="21">
         <v>35</v>
       </c>
@@ -7817,7 +7996,7 @@
       </c>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="21">
         <v>36</v>
       </c>
@@ -7832,7 +8011,7 @@
       </c>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="21">
         <v>37</v>
       </c>
@@ -7846,7 +8025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="21">
         <v>38</v>
       </c>
@@ -7860,7 +8039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="21">
         <v>39</v>
       </c>
@@ -7874,7 +8053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="21">
         <v>40</v>
       </c>
@@ -7888,7 +8067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46" s="21">
         <v>41</v>
       </c>
@@ -7902,7 +8081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" s="21">
         <v>42</v>
       </c>
@@ -7916,7 +8095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" s="21">
         <v>43</v>
       </c>
@@ -7930,7 +8109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="21">
         <v>44</v>
       </c>
@@ -7944,7 +8123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="21">
         <v>45</v>
       </c>
@@ -7958,7 +8137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="21">
         <v>46</v>
       </c>
@@ -7972,7 +8151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="21">
         <v>47</v>
       </c>
@@ -7986,7 +8165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="21">
         <v>48</v>
       </c>
@@ -8000,7 +8179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="21">
         <v>49</v>
       </c>
@@ -8014,7 +8193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="21">
         <v>50</v>
       </c>
@@ -8028,7 +8207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="21">
         <v>51</v>
       </c>
@@ -8042,7 +8221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="21">
         <v>52</v>
       </c>
@@ -8056,7 +8235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="21">
         <v>53</v>
       </c>
@@ -8070,7 +8249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="21">
         <v>54</v>
       </c>
@@ -8084,7 +8263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="21">
         <v>55</v>
       </c>
@@ -8098,7 +8277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="21">
         <v>56</v>
       </c>
@@ -8112,7 +8291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="21">
         <v>57</v>
       </c>
@@ -8126,7 +8305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="21">
         <v>58</v>
       </c>
@@ -8140,7 +8319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="21">
         <v>59</v>
       </c>
@@ -8154,7 +8333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="21">
         <v>60</v>
       </c>
@@ -8168,7 +8347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="21">
         <v>61</v>
       </c>
@@ -8182,7 +8361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="21">
         <v>62</v>
       </c>
@@ -8196,7 +8375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="21">
         <v>63</v>
       </c>
@@ -8210,7 +8389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="21">
         <v>64</v>
       </c>
@@ -8224,7 +8403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="21">
         <v>65</v>
       </c>
@@ -8238,7 +8417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="21">
         <v>66</v>
       </c>
@@ -8252,7 +8431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="21">
         <v>67</v>
       </c>
@@ -8266,7 +8445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="21">
         <v>68</v>
       </c>
@@ -8280,7 +8459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="21">
         <v>69</v>
       </c>
@@ -8294,7 +8473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="21">
         <v>70</v>
       </c>
@@ -8308,7 +8487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="21">
         <v>71</v>
       </c>
@@ -8322,7 +8501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="21">
         <v>72</v>
       </c>
@@ -8336,7 +8515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="21">
         <v>73</v>
       </c>
@@ -8350,7 +8529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="21">
         <v>74</v>
       </c>
@@ -8364,7 +8543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="21">
         <v>75</v>
       </c>
@@ -8378,7 +8557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="21">
         <v>76</v>
       </c>
@@ -8392,7 +8571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="21">
         <v>77</v>
       </c>
@@ -8406,7 +8585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="21">
         <v>78</v>
       </c>
@@ -8420,7 +8599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="21">
         <v>79</v>
       </c>
@@ -8434,7 +8613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="21">
         <v>80</v>
       </c>
@@ -8448,7 +8627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="21">
         <v>81</v>
       </c>
@@ -8462,7 +8641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="21">
         <v>82</v>
       </c>
@@ -8476,7 +8655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="21">
         <v>83</v>
       </c>
@@ -8490,7 +8669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="21">
         <v>84</v>
       </c>
@@ -8504,7 +8683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="21">
         <v>85</v>
       </c>
@@ -8518,7 +8697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="21">
         <v>86</v>
       </c>
@@ -8532,7 +8711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="21">
         <v>87</v>
       </c>
@@ -8546,7 +8725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="21">
         <v>88</v>
       </c>
@@ -8560,7 +8739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="21">
         <v>89</v>
       </c>
@@ -8574,7 +8753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="21">
         <v>90</v>
       </c>
@@ -8588,7 +8767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="21">
         <v>91</v>
       </c>
@@ -8602,7 +8781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="21">
         <v>92</v>
       </c>
@@ -8616,7 +8795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="21">
         <v>93</v>
       </c>
@@ -8630,7 +8809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="21">
         <v>94</v>
       </c>
@@ -8644,7 +8823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="21">
         <v>95</v>
       </c>
@@ -8658,7 +8837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="21">
         <v>96</v>
       </c>
@@ -8672,7 +8851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" s="21">
         <v>97</v>
       </c>
@@ -8686,7 +8865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B103" s="21">
         <v>98</v>
       </c>
@@ -8700,7 +8879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="21">
         <v>99</v>
       </c>
@@ -8714,7 +8893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="21">
         <v>100</v>
       </c>
@@ -8728,7 +8907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B106" s="21">
         <v>101</v>
       </c>
@@ -8742,7 +8921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B107" s="21">
         <v>102</v>
       </c>
@@ -8756,7 +8935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="21">
         <v>103</v>
       </c>
@@ -8770,7 +8949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B109" s="21">
         <v>104</v>
       </c>
@@ -8784,7 +8963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B110" s="21">
         <v>105</v>
       </c>
@@ -8798,7 +8977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="21">
         <v>106</v>
       </c>
@@ -8812,7 +8991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="21">
         <v>107</v>
       </c>
@@ -8826,7 +9005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" s="21">
         <v>108</v>
       </c>
@@ -8840,7 +9019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="21">
         <v>109</v>
       </c>
@@ -8854,7 +9033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="21">
         <v>110</v>
       </c>
@@ -8868,7 +9047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="21">
         <v>111</v>
       </c>
@@ -8882,7 +9061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B117" s="21">
         <v>112</v>
       </c>
@@ -8896,7 +9075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B118" s="21">
         <v>113</v>
       </c>
@@ -8910,7 +9089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B119" s="21">
         <v>114</v>
       </c>
@@ -8924,7 +9103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B120" s="21">
         <v>115</v>
       </c>
@@ -8938,7 +9117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B121" s="21">
         <v>116</v>
       </c>
@@ -8952,7 +9131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B122" s="21">
         <v>117</v>
       </c>
@@ -8966,7 +9145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B123" s="21">
         <v>118</v>
       </c>
@@ -8980,7 +9159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" s="21">
         <v>119</v>
       </c>
@@ -8994,7 +9173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B125" s="21">
         <v>120</v>
       </c>
@@ -9008,7 +9187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B126" s="21">
         <v>121</v>
       </c>
@@ -9022,7 +9201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B127" s="21">
         <v>122</v>
       </c>
@@ -9036,7 +9215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B128" s="21">
         <v>123</v>
       </c>
@@ -9050,7 +9229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B129" s="21">
         <v>124</v>
       </c>
@@ -9064,7 +9243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B130" s="21">
         <v>125</v>
       </c>
@@ -9078,7 +9257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B131" s="21">
         <v>126</v>
       </c>
@@ -9092,7 +9271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132" s="21">
         <v>127</v>
       </c>
@@ -9106,7 +9285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="21">
         <v>128</v>
       </c>
@@ -9120,7 +9299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134" s="21">
         <v>129</v>
       </c>
@@ -9134,7 +9313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135" s="21">
         <v>130</v>
       </c>
@@ -9148,7 +9327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="21">
         <v>131</v>
       </c>
@@ -9162,7 +9341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137" s="21">
         <v>132</v>
       </c>
@@ -9176,7 +9355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B138" s="21">
         <v>133</v>
       </c>
@@ -9190,7 +9369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B139" s="21">
         <v>134</v>
       </c>
@@ -9204,7 +9383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140" s="21">
         <v>135</v>
       </c>
@@ -9218,7 +9397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B141" s="21">
         <v>136</v>
       </c>
@@ -9232,7 +9411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B142" s="21">
         <v>137</v>
       </c>
@@ -9246,7 +9425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143" s="21">
         <v>138</v>
       </c>
@@ -9260,7 +9439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144" s="21">
         <v>139</v>
       </c>
@@ -9274,7 +9453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B145" s="21">
         <v>140</v>
       </c>
@@ -9288,7 +9467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B146" s="21">
         <v>141</v>
       </c>
@@ -9302,7 +9481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147" s="21">
         <v>142</v>
       </c>
@@ -9316,7 +9495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148" s="21">
         <v>143</v>
       </c>
@@ -9330,7 +9509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" s="21">
         <v>144</v>
       </c>
@@ -9344,7 +9523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B150" s="21">
         <v>145</v>
       </c>
@@ -9358,7 +9537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B151" s="21">
         <v>146</v>
       </c>
@@ -9372,7 +9551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B152" s="21">
         <v>147</v>
       </c>
@@ -9386,7 +9565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B153" s="21">
         <v>148</v>
       </c>
@@ -9400,7 +9579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B154" s="21">
         <v>149</v>
       </c>
@@ -9414,7 +9593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155" s="21">
         <v>150</v>
       </c>
@@ -9428,7 +9607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B156" s="21">
         <v>151</v>
       </c>
@@ -9442,7 +9621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B157" s="21">
         <v>152</v>
       </c>
@@ -9456,7 +9635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158" s="21">
         <v>153</v>
       </c>
@@ -9470,7 +9649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" s="21">
         <v>154</v>
       </c>
@@ -9484,7 +9663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B160" s="21">
         <v>155</v>
       </c>
@@ -9498,7 +9677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B161" s="21">
         <v>156</v>
       </c>
@@ -9512,7 +9691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="21">
         <v>157</v>
       </c>
@@ -9526,7 +9705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B163" s="21">
         <v>158</v>
       </c>
@@ -9540,7 +9719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B164" s="21">
         <v>159</v>
       </c>
@@ -9554,7 +9733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="21">
         <v>160</v>
       </c>
@@ -9568,7 +9747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="21">
         <v>161</v>
       </c>
@@ -9582,7 +9761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167" s="21">
         <v>162</v>
       </c>
@@ -9596,7 +9775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168" s="21">
         <v>163</v>
       </c>
@@ -9610,7 +9789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="21">
         <v>164</v>
       </c>
@@ -9624,7 +9803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="21">
         <v>165</v>
       </c>
@@ -9638,7 +9817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="21">
         <v>166</v>
       </c>
@@ -9652,7 +9831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B172" s="21">
         <v>167</v>
       </c>
@@ -9666,7 +9845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B173" s="21">
         <v>168</v>
       </c>
@@ -9680,7 +9859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B174" s="21">
         <v>169</v>
       </c>
@@ -9694,7 +9873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B175" s="21">
         <v>170</v>
       </c>
@@ -9708,7 +9887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B176" s="21">
         <v>171</v>
       </c>
@@ -9722,7 +9901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" s="21">
         <v>172</v>
       </c>
@@ -9736,7 +9915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B178" s="21">
         <v>173</v>
       </c>
@@ -9750,7 +9929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B179" s="21">
         <v>174</v>
       </c>
@@ -9764,7 +9943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180" s="21">
         <v>175</v>
       </c>
@@ -9778,7 +9957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181" s="21">
         <v>176</v>
       </c>
@@ -9792,7 +9971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B182" s="21">
         <v>177</v>
       </c>
@@ -9806,7 +9985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B183" s="21">
         <v>178</v>
       </c>
@@ -9820,7 +9999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184" s="21">
         <v>179</v>
       </c>
@@ -9834,7 +10013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B185" s="21">
         <v>180</v>
       </c>
@@ -9848,7 +10027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B186" s="21">
         <v>181</v>
       </c>
@@ -9862,7 +10041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187" s="21">
         <v>182</v>
       </c>
@@ -9876,7 +10055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" s="21">
         <v>183</v>
       </c>
@@ -9890,7 +10069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B189" s="21">
         <v>184</v>
       </c>
@@ -9904,7 +10083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B190" s="21">
         <v>185</v>
       </c>
@@ -9918,7 +10097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" s="21">
         <v>186</v>
       </c>
@@ -9932,7 +10111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" s="21">
         <v>187</v>
       </c>
@@ -9946,7 +10125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193" s="21">
         <v>188</v>
       </c>
@@ -9960,7 +10139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B194" s="21">
         <v>189</v>
       </c>
@@ -9974,7 +10153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B195" s="21">
         <v>190</v>
       </c>
@@ -9988,7 +10167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B196" s="21">
         <v>191</v>
       </c>
@@ -10002,7 +10181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B197" s="21">
         <v>192</v>
       </c>
@@ -10016,7 +10195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B198" s="21">
         <v>193</v>
       </c>
@@ -10030,7 +10209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199" s="21">
         <v>194</v>
       </c>
@@ -10044,7 +10223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B200" s="21">
         <v>195</v>
       </c>
@@ -10058,7 +10237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B201" s="21">
         <v>196</v>
       </c>
@@ -10072,7 +10251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202" s="21">
         <v>197</v>
       </c>
@@ -10086,7 +10265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203" s="21">
         <v>198</v>
       </c>
@@ -10100,7 +10279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B204" s="21">
         <v>199</v>
       </c>
@@ -10114,7 +10293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B205" s="23">
         <v>200</v>
       </c>
@@ -10145,19 +10324,19 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="5" width="11" style="6"/>
     <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="11" style="6"/>
-    <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -10167,7 +10346,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -10179,616 +10358,616 @@
       <c r="N3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B5" s="13"/>
       <c r="I5" s="2"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B8" s="13"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B9" s="13"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B12" s="13"/>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="13"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" s="13"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" s="13"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="13"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="13"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="13"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="13"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="13"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="13"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="13"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="13"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="13"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="13"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="13"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="13"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="13"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="13"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="13"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="13"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="13"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="13"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="13"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="13"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="13"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="13"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="13"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="13"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="13"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="13"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="13"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="13"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="13"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="13"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="13"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="13"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="13"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="13"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="13"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="13"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="13"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="13"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="13"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="13"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="13"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="13"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="13"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="13"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="13"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="13"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="13"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="13"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="13"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="13"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="13"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="13"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="13"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="13"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="13"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="13"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" s="13"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="13"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" s="13"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="13"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="13"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="13"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="13"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="13"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" s="13"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" s="13"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128" s="13"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" s="13"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" s="13"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131" s="13"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132" s="13"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133" s="13"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B134" s="13"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" s="13"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136" s="13"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B137" s="13"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B138" s="13"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B139" s="13"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B140" s="13"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B141" s="13"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B142" s="13"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B143" s="13"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B145" s="13"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B147" s="13"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B148" s="13"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B149" s="13"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B150" s="13"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B151" s="13"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B152" s="13"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B153" s="13"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B154" s="13"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B155" s="13"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B156" s="13"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B157" s="13"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B158" s="13"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B159" s="13"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B160" s="13"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B161" s="13"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B162" s="13"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B163" s="13"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B164" s="13"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B165" s="13"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B166" s="13"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B167" s="13"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B168" s="13"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B169" s="13"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B170" s="13"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B171" s="13"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B172" s="13"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B173" s="13"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B174" s="13"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B175" s="13"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B176" s="13"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B177" s="13"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B178" s="13"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B179" s="13"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B180" s="13"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B181" s="13"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B182" s="13"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B183" s="13"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B184" s="13"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B185" s="13"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B186" s="13"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B187" s="13"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B188" s="13"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B189" s="13"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B190" s="13"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B191" s="13"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B192" s="13"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B193" s="13"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B194" s="13"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B195" s="13"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B196" s="13"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B197" s="13"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B198" s="13"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B199" s="13"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B200" s="13"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B201" s="13"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B202" s="13"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B203" s="13"/>
     </row>
   </sheetData>

--- a/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
+++ b/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\joao\src\Github\ISEP-MATCP-2022-2023\Trabalho 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB3494C-0AB1-45F8-94BF-812119D319FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADF958F-5445-477C-8128-C30A27FFB080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="38">
   <si>
     <t>Número</t>
   </si>
@@ -120,16 +120,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>F(X)</t>
-  </si>
-  <si>
-    <t>Total de vendidos</t>
-  </si>
-  <si>
     <t>X =  o número de clientes que compra um apartamento T5</t>
-  </si>
-  <si>
-    <t>P (T0 | venda)</t>
   </si>
   <si>
     <t>f(X) - Probabilidade da ocorrência de X</t>
@@ -140,6 +131,18 @@
   <si>
     <t>X - apartamentos que foram comercializados</t>
   </si>
+  <si>
+    <t>P(venda) - probabilidade de um apartamento ser vendido</t>
+  </si>
+  <si>
+    <t>P(T0) - probabilidade de um apartamento vendido ser T0</t>
+  </si>
+  <si>
+    <t>fórmula de Bayes</t>
+  </si>
+  <si>
+    <t>P(T0 | venda) = P(venda | T0) * P(T0) / P(venda)</t>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +150,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -218,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -517,47 +526,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -4267,8 +4295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A990CD-725A-0E49-A453-E6B6F139DF19}">
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4308,7 +4336,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="8"/>
@@ -4338,7 +4366,7 @@
       <c r="N4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4445,7 +4473,7 @@
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="29">
@@ -4504,17 +4532,17 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="G9"/>
+      <c r="H9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="21">
@@ -4529,17 +4557,17 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="G10"/>
+      <c r="H10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
@@ -4554,14 +4582,14 @@
       <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
@@ -4576,14 +4604,14 @@
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
@@ -4620,7 +4648,7 @@
       <c r="N13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="37" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4638,38 +4666,38 @@
         <v>12</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="38">
+        <v>32</v>
+      </c>
+      <c r="I14" s="31">
         <f>I5/$O5</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="31">
         <f t="shared" ref="J14:N14" si="6">J5/$O5</f>
         <v>0.20408163265306123</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="31">
         <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="31">
         <f t="shared" si="6"/>
         <v>0.1326530612244898</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="31">
         <f t="shared" si="6"/>
         <v>0.1326530612244898</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="31">
         <f t="shared" si="6"/>
         <v>0.17346938775510204</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="36">
         <f>SUM(I14:N14)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="21">
         <v>10</v>
       </c>
@@ -4683,7 +4711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="21">
         <v>11</v>
       </c>
@@ -4696,14 +4724,25 @@
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="M16" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="47"/>
+      <c r="R16">
+        <f>O5/O7</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21">
         <v>12</v>
       </c>
@@ -4716,8 +4755,19 @@
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48">
+        <f>I14</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="21">
         <v>13</v>
       </c>
@@ -4730,32 +4780,18 @@
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H18" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="21">
         <v>14</v>
       </c>
@@ -4768,39 +4804,16 @@
       <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="32">
-        <f>I10/$I21</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="32">
-        <f t="shared" ref="J19:N19" si="7">J10/$I21</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <f>SUM(I19:N19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="43"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="21">
         <v>15</v>
       </c>
@@ -4813,8 +4826,14 @@
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J20" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="21">
         <v>16</v>
       </c>
@@ -4827,14 +4846,9 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="21">
         <v>17</v>
       </c>
@@ -4848,7 +4862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="21">
         <v>18</v>
       </c>
@@ -4862,7 +4876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="21">
         <v>19</v>
       </c>
@@ -4876,7 +4890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="21">
         <v>20</v>
       </c>
@@ -4890,7 +4904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="21">
         <v>21</v>
       </c>
@@ -4904,7 +4918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="21">
         <v>22</v>
       </c>
@@ -4918,7 +4932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="21">
         <v>23</v>
       </c>
@@ -4932,7 +4946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="21">
         <v>24</v>
       </c>
@@ -4946,7 +4960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="21">
         <v>25</v>
       </c>
@@ -4960,7 +4974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="21">
         <v>26</v>
       </c>
@@ -4974,7 +4988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="21">
         <v>27</v>
       </c>
@@ -7413,9 +7427,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="M17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7467,7 +7484,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="8"/>
@@ -7479,7 +7496,7 @@
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2"/>
     </row>

--- a/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
+++ b/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\joao\src\Github\ISEP-MATCP-2022-2023\Trabalho 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADF958F-5445-477C-8128-C30A27FFB080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B28B91-7A7C-42DF-AB4C-42548DE9D010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="2" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="1DXXX_dados" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="47">
   <si>
     <t>Número</t>
   </si>
@@ -135,24 +135,52 @@
     <t>P(venda) - probabilidade de um apartamento ser vendido</t>
   </si>
   <si>
-    <t>P(T0) - probabilidade de um apartamento vendido ser T0</t>
+    <t>P(T0) - probabilidade de um apartamento ser T0</t>
   </si>
   <si>
-    <t>fórmula de Bayes</t>
+    <t>P(T0 | venda)  =  P(T0) ∩ P(venda) / P(venda)</t>
   </si>
   <si>
-    <t>P(T0 | venda) = P(venda | T0) * P(T0) / P(venda)</t>
+    <t>casos totais</t>
+  </si>
+  <si>
+    <t>casos favoraveis</t>
+  </si>
+  <si>
+    <t>Solução?</t>
+  </si>
+  <si>
+    <t>P(X&gt;=7 | X&gt;=3)  =  P(X&gt;=7) ∩ P(X&gt;=3) / P(X&gt;=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(X&gt;=7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(X&gt;=3) </t>
+  </si>
+  <si>
+    <t>f(X)</t>
+  </si>
+  <si>
+    <t>Solução</t>
+  </si>
+  <si>
+    <t>somatorio(3-14)</t>
+  </si>
+  <si>
+    <t>somatorio(7-14)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,8 +248,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,12 +290,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,11 +481,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -544,10 +581,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -559,16 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,18 +606,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -1381,25 +1425,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724EE4AD-DC68-3C43-A58C-F99F52D328A9}">
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H203"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46.75" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1221694</v>
       </c>
@@ -1433,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1221121</v>
       </c>
@@ -1456,7 +1500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1220754</v>
       </c>
@@ -1480,7 +1524,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1210787</v>
       </c>
@@ -1503,7 +1547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1210998</v>
       </c>
@@ -1526,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1211146</v>
       </c>
@@ -1549,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1566,7 +1610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="21">
         <v>7</v>
       </c>
@@ -1580,7 +1624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="21">
         <v>8</v>
       </c>
@@ -1594,7 +1638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="21">
         <v>9</v>
       </c>
@@ -1608,7 +1652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="21">
         <v>10</v>
       </c>
@@ -1622,7 +1666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="21">
         <v>11</v>
       </c>
@@ -1636,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="21">
         <v>12</v>
       </c>
@@ -1650,7 +1694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="21">
         <v>13</v>
       </c>
@@ -1664,7 +1708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="21">
         <v>14</v>
       </c>
@@ -1678,7 +1722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="21">
         <v>15</v>
       </c>
@@ -1692,7 +1736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="21">
         <v>16</v>
       </c>
@@ -1706,7 +1750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="21">
         <v>17</v>
       </c>
@@ -1720,7 +1764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="21">
         <v>18</v>
       </c>
@@ -1734,7 +1778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="21">
         <v>19</v>
       </c>
@@ -1748,7 +1792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="21">
         <v>20</v>
       </c>
@@ -1762,7 +1806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="21">
         <v>21</v>
       </c>
@@ -1776,7 +1820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" s="21">
         <v>22</v>
       </c>
@@ -1790,7 +1834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" s="21">
         <v>23</v>
       </c>
@@ -1804,7 +1848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27" s="21">
         <v>24</v>
       </c>
@@ -1818,7 +1862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28" s="21">
         <v>25</v>
       </c>
@@ -1832,7 +1876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29" s="21">
         <v>26</v>
       </c>
@@ -1846,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30" s="21">
         <v>27</v>
       </c>
@@ -1860,7 +1904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31" s="21">
         <v>28</v>
       </c>
@@ -1874,7 +1918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E32" s="21">
         <v>29</v>
       </c>
@@ -1888,7 +1932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="21">
         <v>30</v>
       </c>
@@ -1902,7 +1946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="21">
         <v>31</v>
       </c>
@@ -1916,7 +1960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="21">
         <v>32</v>
       </c>
@@ -1930,7 +1974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="21">
         <v>33</v>
       </c>
@@ -1944,7 +1988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="21">
         <v>34</v>
       </c>
@@ -1958,7 +2002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="21">
         <v>35</v>
       </c>
@@ -1972,7 +2016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="21">
         <v>36</v>
       </c>
@@ -1986,7 +2030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="21">
         <v>37</v>
       </c>
@@ -2000,7 +2044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="21">
         <v>38</v>
       </c>
@@ -2014,7 +2058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" s="21">
         <v>39</v>
       </c>
@@ -2028,7 +2072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" s="21">
         <v>40</v>
       </c>
@@ -2042,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" s="21">
         <v>41</v>
       </c>
@@ -2056,7 +2100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" s="21">
         <v>42</v>
       </c>
@@ -2070,7 +2114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" s="21">
         <v>43</v>
       </c>
@@ -2084,7 +2128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" s="21">
         <v>44</v>
       </c>
@@ -2098,7 +2142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48" s="21">
         <v>45</v>
       </c>
@@ -2112,7 +2156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E49" s="21">
         <v>46</v>
       </c>
@@ -2126,7 +2170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E50" s="21">
         <v>47</v>
       </c>
@@ -2140,7 +2184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E51" s="21">
         <v>48</v>
       </c>
@@ -2154,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E52" s="21">
         <v>49</v>
       </c>
@@ -2168,7 +2212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E53" s="21">
         <v>50</v>
       </c>
@@ -2182,7 +2226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E54" s="21">
         <v>51</v>
       </c>
@@ -2196,7 +2240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E55" s="21">
         <v>52</v>
       </c>
@@ -2210,7 +2254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E56" s="21">
         <v>53</v>
       </c>
@@ -2224,7 +2268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E57" s="21">
         <v>54</v>
       </c>
@@ -2238,7 +2282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E58" s="21">
         <v>55</v>
       </c>
@@ -2252,7 +2296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E59" s="21">
         <v>56</v>
       </c>
@@ -2266,7 +2310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E60" s="21">
         <v>57</v>
       </c>
@@ -2280,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E61" s="21">
         <v>58</v>
       </c>
@@ -2294,7 +2338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E62" s="21">
         <v>59</v>
       </c>
@@ -2308,7 +2352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E63" s="21">
         <v>60</v>
       </c>
@@ -2322,7 +2366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E64" s="21">
         <v>61</v>
       </c>
@@ -2336,7 +2380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E65" s="21">
         <v>62</v>
       </c>
@@ -2350,7 +2394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" s="21">
         <v>63</v>
       </c>
@@ -2364,7 +2408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67" s="21">
         <v>64</v>
       </c>
@@ -2378,7 +2422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E68" s="21">
         <v>65</v>
       </c>
@@ -2392,7 +2436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E69" s="21">
         <v>66</v>
       </c>
@@ -2406,7 +2450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E70" s="21">
         <v>67</v>
       </c>
@@ -2420,7 +2464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E71" s="21">
         <v>68</v>
       </c>
@@ -2434,7 +2478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E72" s="21">
         <v>69</v>
       </c>
@@ -2448,7 +2492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E73" s="21">
         <v>70</v>
       </c>
@@ -2462,7 +2506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E74" s="21">
         <v>71</v>
       </c>
@@ -2476,7 +2520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E75" s="21">
         <v>72</v>
       </c>
@@ -2490,7 +2534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E76" s="21">
         <v>73</v>
       </c>
@@ -2504,7 +2548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E77" s="21">
         <v>74</v>
       </c>
@@ -2518,7 +2562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E78" s="21">
         <v>75</v>
       </c>
@@ -2532,7 +2576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E79" s="21">
         <v>76</v>
       </c>
@@ -2546,7 +2590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E80" s="21">
         <v>77</v>
       </c>
@@ -2560,7 +2604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E81" s="21">
         <v>78</v>
       </c>
@@ -2574,7 +2618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E82" s="21">
         <v>79</v>
       </c>
@@ -2588,7 +2632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E83" s="21">
         <v>80</v>
       </c>
@@ -2602,7 +2646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E84" s="21">
         <v>81</v>
       </c>
@@ -2616,7 +2660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E85" s="21">
         <v>82</v>
       </c>
@@ -2630,7 +2674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E86" s="21">
         <v>83</v>
       </c>
@@ -2644,7 +2688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E87" s="21">
         <v>84</v>
       </c>
@@ -2658,7 +2702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E88" s="21">
         <v>85</v>
       </c>
@@ -2672,7 +2716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E89" s="21">
         <v>86</v>
       </c>
@@ -2686,7 +2730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E90" s="21">
         <v>87</v>
       </c>
@@ -2700,7 +2744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E91" s="21">
         <v>88</v>
       </c>
@@ -2714,7 +2758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E92" s="21">
         <v>89</v>
       </c>
@@ -2728,7 +2772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E93" s="21">
         <v>90</v>
       </c>
@@ -2742,7 +2786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E94" s="21">
         <v>91</v>
       </c>
@@ -2756,7 +2800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E95" s="21">
         <v>92</v>
       </c>
@@ -2770,7 +2814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E96" s="21">
         <v>93</v>
       </c>
@@ -2784,7 +2828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E97" s="21">
         <v>94</v>
       </c>
@@ -2798,7 +2842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E98" s="21">
         <v>95</v>
       </c>
@@ -2812,7 +2856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E99" s="21">
         <v>96</v>
       </c>
@@ -2826,7 +2870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E100" s="21">
         <v>97</v>
       </c>
@@ -2840,7 +2884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E101" s="21">
         <v>98</v>
       </c>
@@ -2854,7 +2898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E102" s="21">
         <v>99</v>
       </c>
@@ -2868,7 +2912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E103" s="21">
         <v>100</v>
       </c>
@@ -2882,7 +2926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E104" s="21">
         <v>101</v>
       </c>
@@ -2896,7 +2940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E105" s="21">
         <v>102</v>
       </c>
@@ -2910,7 +2954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E106" s="21">
         <v>103</v>
       </c>
@@ -2924,7 +2968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E107" s="21">
         <v>104</v>
       </c>
@@ -2938,7 +2982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E108" s="21">
         <v>105</v>
       </c>
@@ -2952,7 +2996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E109" s="21">
         <v>106</v>
       </c>
@@ -2966,7 +3010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E110" s="21">
         <v>107</v>
       </c>
@@ -2980,7 +3024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E111" s="21">
         <v>108</v>
       </c>
@@ -2994,7 +3038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E112" s="21">
         <v>109</v>
       </c>
@@ -3008,7 +3052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E113" s="21">
         <v>110</v>
       </c>
@@ -3022,7 +3066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E114" s="21">
         <v>111</v>
       </c>
@@ -3036,7 +3080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E115" s="21">
         <v>112</v>
       </c>
@@ -3050,7 +3094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E116" s="21">
         <v>113</v>
       </c>
@@ -3064,7 +3108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E117" s="21">
         <v>114</v>
       </c>
@@ -3078,7 +3122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E118" s="21">
         <v>115</v>
       </c>
@@ -3092,7 +3136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E119" s="21">
         <v>116</v>
       </c>
@@ -3106,7 +3150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E120" s="21">
         <v>117</v>
       </c>
@@ -3120,7 +3164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E121" s="21">
         <v>118</v>
       </c>
@@ -3134,7 +3178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E122" s="21">
         <v>119</v>
       </c>
@@ -3148,7 +3192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E123" s="21">
         <v>120</v>
       </c>
@@ -3162,7 +3206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E124" s="21">
         <v>121</v>
       </c>
@@ -3176,7 +3220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E125" s="21">
         <v>122</v>
       </c>
@@ -3190,7 +3234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E126" s="21">
         <v>123</v>
       </c>
@@ -3204,7 +3248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E127" s="21">
         <v>124</v>
       </c>
@@ -3218,7 +3262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E128" s="21">
         <v>125</v>
       </c>
@@ -3232,7 +3276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E129" s="21">
         <v>126</v>
       </c>
@@ -3246,7 +3290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E130" s="21">
         <v>127</v>
       </c>
@@ -3260,7 +3304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E131" s="21">
         <v>128</v>
       </c>
@@ -3274,7 +3318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E132" s="21">
         <v>129</v>
       </c>
@@ -3288,7 +3332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E133" s="21">
         <v>130</v>
       </c>
@@ -3302,7 +3346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E134" s="21">
         <v>131</v>
       </c>
@@ -3316,7 +3360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E135" s="21">
         <v>132</v>
       </c>
@@ -3330,7 +3374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E136" s="21">
         <v>133</v>
       </c>
@@ -3344,7 +3388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E137" s="21">
         <v>134</v>
       </c>
@@ -3358,7 +3402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E138" s="21">
         <v>135</v>
       </c>
@@ -3372,7 +3416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E139" s="21">
         <v>136</v>
       </c>
@@ -3386,7 +3430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E140" s="21">
         <v>137</v>
       </c>
@@ -3400,7 +3444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E141" s="21">
         <v>138</v>
       </c>
@@ -3414,7 +3458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E142" s="21">
         <v>139</v>
       </c>
@@ -3428,7 +3472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E143" s="21">
         <v>140</v>
       </c>
@@ -3442,7 +3486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E144" s="21">
         <v>141</v>
       </c>
@@ -3456,7 +3500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E145" s="21">
         <v>142</v>
       </c>
@@ -3470,7 +3514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E146" s="21">
         <v>143</v>
       </c>
@@ -3484,7 +3528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E147" s="21">
         <v>144</v>
       </c>
@@ -3498,7 +3542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E148" s="21">
         <v>145</v>
       </c>
@@ -3512,7 +3556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E149" s="21">
         <v>146</v>
       </c>
@@ -3526,7 +3570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E150" s="21">
         <v>147</v>
       </c>
@@ -3540,7 +3584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E151" s="21">
         <v>148</v>
       </c>
@@ -3554,7 +3598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E152" s="21">
         <v>149</v>
       </c>
@@ -3568,7 +3612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E153" s="21">
         <v>150</v>
       </c>
@@ -3582,7 +3626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E154" s="21">
         <v>151</v>
       </c>
@@ -3596,7 +3640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E155" s="21">
         <v>152</v>
       </c>
@@ -3610,7 +3654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E156" s="21">
         <v>153</v>
       </c>
@@ -3624,7 +3668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E157" s="21">
         <v>154</v>
       </c>
@@ -3638,7 +3682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E158" s="21">
         <v>155</v>
       </c>
@@ -3652,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E159" s="21">
         <v>156</v>
       </c>
@@ -3666,7 +3710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E160" s="21">
         <v>157</v>
       </c>
@@ -3680,7 +3724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E161" s="21">
         <v>158</v>
       </c>
@@ -3694,7 +3738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E162" s="21">
         <v>159</v>
       </c>
@@ -3708,7 +3752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E163" s="21">
         <v>160</v>
       </c>
@@ -3722,7 +3766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E164" s="21">
         <v>161</v>
       </c>
@@ -3736,7 +3780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E165" s="21">
         <v>162</v>
       </c>
@@ -3750,7 +3794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E166" s="21">
         <v>163</v>
       </c>
@@ -3764,7 +3808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E167" s="21">
         <v>164</v>
       </c>
@@ -3778,7 +3822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E168" s="21">
         <v>165</v>
       </c>
@@ -3792,7 +3836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E169" s="21">
         <v>166</v>
       </c>
@@ -3806,7 +3850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E170" s="21">
         <v>167</v>
       </c>
@@ -3820,7 +3864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E171" s="21">
         <v>168</v>
       </c>
@@ -3834,7 +3878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E172" s="21">
         <v>169</v>
       </c>
@@ -3848,7 +3892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E173" s="21">
         <v>170</v>
       </c>
@@ -3862,7 +3906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E174" s="21">
         <v>171</v>
       </c>
@@ -3876,7 +3920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E175" s="21">
         <v>172</v>
       </c>
@@ -3890,7 +3934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E176" s="21">
         <v>173</v>
       </c>
@@ -3904,7 +3948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E177" s="21">
         <v>174</v>
       </c>
@@ -3918,7 +3962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E178" s="21">
         <v>175</v>
       </c>
@@ -3932,7 +3976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E179" s="21">
         <v>176</v>
       </c>
@@ -3946,7 +3990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E180" s="21">
         <v>177</v>
       </c>
@@ -3960,7 +4004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E181" s="21">
         <v>178</v>
       </c>
@@ -3974,7 +4018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E182" s="21">
         <v>179</v>
       </c>
@@ -3988,7 +4032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E183" s="21">
         <v>180</v>
       </c>
@@ -4002,7 +4046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E184" s="21">
         <v>181</v>
       </c>
@@ -4016,7 +4060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E185" s="21">
         <v>182</v>
       </c>
@@ -4030,7 +4074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E186" s="21">
         <v>183</v>
       </c>
@@ -4044,7 +4088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E187" s="21">
         <v>184</v>
       </c>
@@ -4058,7 +4102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E188" s="21">
         <v>185</v>
       </c>
@@ -4072,7 +4116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E189" s="21">
         <v>186</v>
       </c>
@@ -4086,7 +4130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E190" s="21">
         <v>187</v>
       </c>
@@ -4100,7 +4144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E191" s="21">
         <v>188</v>
       </c>
@@ -4114,7 +4158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E192" s="21">
         <v>189</v>
       </c>
@@ -4128,7 +4172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E193" s="21">
         <v>190</v>
       </c>
@@ -4142,7 +4186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E194" s="21">
         <v>191</v>
       </c>
@@ -4156,7 +4200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E195" s="21">
         <v>192</v>
       </c>
@@ -4170,7 +4214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E196" s="21">
         <v>193</v>
       </c>
@@ -4184,7 +4228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E197" s="21">
         <v>194</v>
       </c>
@@ -4198,7 +4242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E198" s="21">
         <v>195</v>
       </c>
@@ -4212,7 +4256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E199" s="21">
         <v>196</v>
       </c>
@@ -4226,7 +4270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E200" s="21">
         <v>197</v>
       </c>
@@ -4240,7 +4284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E201" s="21">
         <v>198</v>
       </c>
@@ -4254,7 +4298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E202" s="21">
         <v>199</v>
       </c>
@@ -4268,7 +4312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E203" s="23">
         <v>200</v>
       </c>
@@ -4295,30 +4339,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A990CD-725A-0E49-A453-E6B6F139DF19}">
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125"/>
-    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10.875"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
     <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125"/>
+    <col min="23" max="23" width="10.875"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4328,7 +4372,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>24</v>
       </c>
@@ -4344,7 +4388,7 @@
       <c r="N3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="28"/>
@@ -4370,7 +4414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
@@ -4415,7 +4459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -4460,7 +4504,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -4505,7 +4549,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -4519,7 +4563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -4533,18 +4577,18 @@
         <v>12</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -4558,18 +4602,18 @@
         <v>12</v>
       </c>
       <c r="G10"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -4591,7 +4635,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -4614,7 +4658,7 @@
       <c r="O12" s="35"/>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -4648,11 +4692,11 @@
       <c r="N13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
         <v>9</v>
       </c>
@@ -4668,36 +4712,36 @@
       <c r="H14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="46">
         <f>I5/$O5</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="46">
         <f t="shared" ref="J14:N14" si="6">J5/$O5</f>
         <v>0.20408163265306123</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="46">
         <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="46">
         <f t="shared" si="6"/>
         <v>0.1326530612244898</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="46">
         <f t="shared" si="6"/>
         <v>0.1326530612244898</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="46">
         <f t="shared" si="6"/>
         <v>0.17346938775510204</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="45">
         <f>SUM(I14:N14)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21">
         <v>10</v>
       </c>
@@ -4711,7 +4755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21">
         <v>11</v>
       </c>
@@ -4727,22 +4771,19 @@
       <c r="G16" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="47"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="44"/>
       <c r="R16">
         <f>O5/O7</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <v>12</v>
       </c>
@@ -4755,19 +4796,19 @@
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="48">
-        <f>I14</f>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="37">
+        <f>I7/O7</f>
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>13</v>
       </c>
@@ -4780,18 +4821,18 @@
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>14</v>
       </c>
@@ -4804,16 +4845,15 @@
       <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="H19" s="6"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21">
         <v>15</v>
       </c>
@@ -4826,14 +4866,12 @@
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+    </row>
+    <row r="21" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21">
         <v>16</v>
       </c>
@@ -4846,9 +4884,15 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="49"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="H21" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T0")/O5</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21">
         <v>17</v>
       </c>
@@ -4861,8 +4905,15 @@
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="N22" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22">
+        <f>R16*R17/R16</f>
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="21">
         <v>18</v>
       </c>
@@ -4876,7 +4927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>19</v>
       </c>
@@ -4890,7 +4941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>20</v>
       </c>
@@ -4904,7 +4955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>21</v>
       </c>
@@ -4918,7 +4969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>22</v>
       </c>
@@ -4932,7 +4983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>23</v>
       </c>
@@ -4946,7 +4997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>24</v>
       </c>
@@ -4960,7 +5011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
         <v>25</v>
       </c>
@@ -4974,7 +5025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
         <v>26</v>
       </c>
@@ -4988,7 +5039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
         <v>27</v>
       </c>
@@ -5002,7 +5053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="21">
         <v>28</v>
       </c>
@@ -5016,7 +5067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="21">
         <v>29</v>
       </c>
@@ -5030,7 +5081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="21">
         <v>30</v>
       </c>
@@ -5044,7 +5095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="21">
         <v>31</v>
       </c>
@@ -5058,7 +5109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="21">
         <v>32</v>
       </c>
@@ -5072,7 +5123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="21">
         <v>33</v>
       </c>
@@ -5086,7 +5137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="21">
         <v>34</v>
       </c>
@@ -5100,7 +5151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="21">
         <v>35</v>
       </c>
@@ -5115,7 +5166,7 @@
       </c>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="21">
         <v>36</v>
       </c>
@@ -5130,7 +5181,7 @@
       </c>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="21">
         <v>37</v>
       </c>
@@ -5144,7 +5195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="21">
         <v>38</v>
       </c>
@@ -5158,7 +5209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="21">
         <v>39</v>
       </c>
@@ -5172,7 +5223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="21">
         <v>40</v>
       </c>
@@ -5186,7 +5237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="21">
         <v>41</v>
       </c>
@@ -5200,7 +5251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="21">
         <v>42</v>
       </c>
@@ -5214,7 +5265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="21">
         <v>43</v>
       </c>
@@ -5228,7 +5279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="21">
         <v>44</v>
       </c>
@@ -5242,7 +5293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="21">
         <v>45</v>
       </c>
@@ -5256,7 +5307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="21">
         <v>46</v>
       </c>
@@ -5270,7 +5321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="21">
         <v>47</v>
       </c>
@@ -5284,7 +5335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="21">
         <v>48</v>
       </c>
@@ -5298,7 +5349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="21">
         <v>49</v>
       </c>
@@ -5312,7 +5363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="21">
         <v>50</v>
       </c>
@@ -5326,7 +5377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="21">
         <v>51</v>
       </c>
@@ -5340,7 +5391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="21">
         <v>52</v>
       </c>
@@ -5354,7 +5405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="21">
         <v>53</v>
       </c>
@@ -5368,7 +5419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="21">
         <v>54</v>
       </c>
@@ -5382,7 +5433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="21">
         <v>55</v>
       </c>
@@ -5396,7 +5447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="21">
         <v>56</v>
       </c>
@@ -5410,7 +5461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="21">
         <v>57</v>
       </c>
@@ -5424,7 +5475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="21">
         <v>58</v>
       </c>
@@ -5438,7 +5489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="21">
         <v>59</v>
       </c>
@@ -5452,7 +5503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="21">
         <v>60</v>
       </c>
@@ -5466,7 +5517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="21">
         <v>61</v>
       </c>
@@ -5480,7 +5531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="21">
         <v>62</v>
       </c>
@@ -5494,7 +5545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="21">
         <v>63</v>
       </c>
@@ -5508,7 +5559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="21">
         <v>64</v>
       </c>
@@ -5522,7 +5573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="21">
         <v>65</v>
       </c>
@@ -5536,7 +5587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="21">
         <v>66</v>
       </c>
@@ -5550,7 +5601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="21">
         <v>67</v>
       </c>
@@ -5564,7 +5615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="21">
         <v>68</v>
       </c>
@@ -5578,7 +5629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="21">
         <v>69</v>
       </c>
@@ -5592,7 +5643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="21">
         <v>70</v>
       </c>
@@ -5606,7 +5657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="21">
         <v>71</v>
       </c>
@@ -5620,7 +5671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="21">
         <v>72</v>
       </c>
@@ -5634,7 +5685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="21">
         <v>73</v>
       </c>
@@ -5648,7 +5699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="21">
         <v>74</v>
       </c>
@@ -5662,7 +5713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="21">
         <v>75</v>
       </c>
@@ -5676,7 +5727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="21">
         <v>76</v>
       </c>
@@ -5690,7 +5741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="21">
         <v>77</v>
       </c>
@@ -5704,7 +5755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="21">
         <v>78</v>
       </c>
@@ -5718,7 +5769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="21">
         <v>79</v>
       </c>
@@ -5732,7 +5783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="21">
         <v>80</v>
       </c>
@@ -5746,7 +5797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="21">
         <v>81</v>
       </c>
@@ -5760,7 +5811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="21">
         <v>82</v>
       </c>
@@ -5774,7 +5825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="21">
         <v>83</v>
       </c>
@@ -5788,7 +5839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="21">
         <v>84</v>
       </c>
@@ -5802,7 +5853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="21">
         <v>85</v>
       </c>
@@ -5816,7 +5867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="21">
         <v>86</v>
       </c>
@@ -5830,7 +5881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="21">
         <v>87</v>
       </c>
@@ -5844,7 +5895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="21">
         <v>88</v>
       </c>
@@ -5858,7 +5909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="21">
         <v>89</v>
       </c>
@@ -5872,7 +5923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="21">
         <v>90</v>
       </c>
@@ -5886,7 +5937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="21">
         <v>91</v>
       </c>
@@ -5900,7 +5951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="21">
         <v>92</v>
       </c>
@@ -5914,7 +5965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="21">
         <v>93</v>
       </c>
@@ -5928,7 +5979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="21">
         <v>94</v>
       </c>
@@ -5942,7 +5993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="21">
         <v>95</v>
       </c>
@@ -5956,7 +6007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="21">
         <v>96</v>
       </c>
@@ -5970,7 +6021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="21">
         <v>97</v>
       </c>
@@ -5984,7 +6035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="21">
         <v>98</v>
       </c>
@@ -5998,7 +6049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="21">
         <v>99</v>
       </c>
@@ -6012,7 +6063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="21">
         <v>100</v>
       </c>
@@ -6026,7 +6077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="21">
         <v>101</v>
       </c>
@@ -6040,7 +6091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="21">
         <v>102</v>
       </c>
@@ -6054,7 +6105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="21">
         <v>103</v>
       </c>
@@ -6068,7 +6119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="21">
         <v>104</v>
       </c>
@@ -6082,7 +6133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="21">
         <v>105</v>
       </c>
@@ -6096,7 +6147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="21">
         <v>106</v>
       </c>
@@ -6110,7 +6161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="21">
         <v>107</v>
       </c>
@@ -6124,7 +6175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="21">
         <v>108</v>
       </c>
@@ -6138,7 +6189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="21">
         <v>109</v>
       </c>
@@ -6152,7 +6203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="21">
         <v>110</v>
       </c>
@@ -6166,7 +6217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="21">
         <v>111</v>
       </c>
@@ -6180,7 +6231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="21">
         <v>112</v>
       </c>
@@ -6194,7 +6245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="21">
         <v>113</v>
       </c>
@@ -6208,7 +6259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="21">
         <v>114</v>
       </c>
@@ -6222,7 +6273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="21">
         <v>115</v>
       </c>
@@ -6236,7 +6287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="21">
         <v>116</v>
       </c>
@@ -6250,7 +6301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="21">
         <v>117</v>
       </c>
@@ -6264,7 +6315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="21">
         <v>118</v>
       </c>
@@ -6278,7 +6329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="21">
         <v>119</v>
       </c>
@@ -6292,7 +6343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="21">
         <v>120</v>
       </c>
@@ -6306,7 +6357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="21">
         <v>121</v>
       </c>
@@ -6320,7 +6371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="21">
         <v>122</v>
       </c>
@@ -6334,7 +6385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="21">
         <v>123</v>
       </c>
@@ -6348,7 +6399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="21">
         <v>124</v>
       </c>
@@ -6362,7 +6413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="21">
         <v>125</v>
       </c>
@@ -6376,7 +6427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="21">
         <v>126</v>
       </c>
@@ -6390,7 +6441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="21">
         <v>127</v>
       </c>
@@ -6404,7 +6455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="21">
         <v>128</v>
       </c>
@@ -6418,7 +6469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="21">
         <v>129</v>
       </c>
@@ -6432,7 +6483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="21">
         <v>130</v>
       </c>
@@ -6446,7 +6497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="21">
         <v>131</v>
       </c>
@@ -6460,7 +6511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="21">
         <v>132</v>
       </c>
@@ -6474,7 +6525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="21">
         <v>133</v>
       </c>
@@ -6488,7 +6539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="21">
         <v>134</v>
       </c>
@@ -6502,7 +6553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="21">
         <v>135</v>
       </c>
@@ -6516,7 +6567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="21">
         <v>136</v>
       </c>
@@ -6530,7 +6581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="21">
         <v>137</v>
       </c>
@@ -6544,7 +6595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="21">
         <v>138</v>
       </c>
@@ -6558,7 +6609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="21">
         <v>139</v>
       </c>
@@ -6572,7 +6623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="21">
         <v>140</v>
       </c>
@@ -6586,7 +6637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="21">
         <v>141</v>
       </c>
@@ -6600,7 +6651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="21">
         <v>142</v>
       </c>
@@ -6614,7 +6665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="21">
         <v>143</v>
       </c>
@@ -6628,7 +6679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="21">
         <v>144</v>
       </c>
@@ -6642,7 +6693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="21">
         <v>145</v>
       </c>
@@ -6656,7 +6707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="21">
         <v>146</v>
       </c>
@@ -6670,7 +6721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="21">
         <v>147</v>
       </c>
@@ -6684,7 +6735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="21">
         <v>148</v>
       </c>
@@ -6698,7 +6749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="21">
         <v>149</v>
       </c>
@@ -6712,7 +6763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="21">
         <v>150</v>
       </c>
@@ -6726,7 +6777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="21">
         <v>151</v>
       </c>
@@ -6740,7 +6791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="21">
         <v>152</v>
       </c>
@@ -6754,7 +6805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="21">
         <v>153</v>
       </c>
@@ -6768,7 +6819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="21">
         <v>154</v>
       </c>
@@ -6782,7 +6833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="21">
         <v>155</v>
       </c>
@@ -6796,7 +6847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="21">
         <v>156</v>
       </c>
@@ -6810,7 +6861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="21">
         <v>157</v>
       </c>
@@ -6824,7 +6875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="21">
         <v>158</v>
       </c>
@@ -6838,7 +6889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="21">
         <v>159</v>
       </c>
@@ -6852,7 +6903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="21">
         <v>160</v>
       </c>
@@ -6866,7 +6917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="21">
         <v>161</v>
       </c>
@@ -6880,7 +6931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="21">
         <v>162</v>
       </c>
@@ -6894,7 +6945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="21">
         <v>163</v>
       </c>
@@ -6908,7 +6959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="21">
         <v>164</v>
       </c>
@@ -6922,7 +6973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="21">
         <v>165</v>
       </c>
@@ -6936,7 +6987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="21">
         <v>166</v>
       </c>
@@ -6950,7 +7001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="21">
         <v>167</v>
       </c>
@@ -6964,7 +7015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="21">
         <v>168</v>
       </c>
@@ -6978,7 +7029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="21">
         <v>169</v>
       </c>
@@ -6992,7 +7043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="21">
         <v>170</v>
       </c>
@@ -7006,7 +7057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="21">
         <v>171</v>
       </c>
@@ -7020,7 +7071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="21">
         <v>172</v>
       </c>
@@ -7034,7 +7085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="21">
         <v>173</v>
       </c>
@@ -7048,7 +7099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="21">
         <v>174</v>
       </c>
@@ -7062,7 +7113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="21">
         <v>175</v>
       </c>
@@ -7076,7 +7127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="21">
         <v>176</v>
       </c>
@@ -7090,7 +7141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="21">
         <v>177</v>
       </c>
@@ -7104,7 +7155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="21">
         <v>178</v>
       </c>
@@ -7118,7 +7169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="21">
         <v>179</v>
       </c>
@@ -7132,7 +7183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="21">
         <v>180</v>
       </c>
@@ -7146,7 +7197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="21">
         <v>181</v>
       </c>
@@ -7160,7 +7211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="21">
         <v>182</v>
       </c>
@@ -7174,7 +7225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="21">
         <v>183</v>
       </c>
@@ -7188,7 +7239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="21">
         <v>184</v>
       </c>
@@ -7202,7 +7253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="21">
         <v>185</v>
       </c>
@@ -7216,7 +7267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="21">
         <v>186</v>
       </c>
@@ -7230,7 +7281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="21">
         <v>187</v>
       </c>
@@ -7244,7 +7295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="21">
         <v>188</v>
       </c>
@@ -7258,7 +7309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="21">
         <v>189</v>
       </c>
@@ -7272,7 +7323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="21">
         <v>190</v>
       </c>
@@ -7286,7 +7337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="21">
         <v>191</v>
       </c>
@@ -7300,7 +7351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="21">
         <v>192</v>
       </c>
@@ -7314,7 +7365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="21">
         <v>193</v>
       </c>
@@ -7328,7 +7379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="21">
         <v>194</v>
       </c>
@@ -7342,7 +7393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="21">
         <v>195</v>
       </c>
@@ -7356,7 +7407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="21">
         <v>196</v>
       </c>
@@ -7370,7 +7421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="21">
         <v>197</v>
       </c>
@@ -7384,7 +7435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="21">
         <v>198</v>
       </c>
@@ -7398,7 +7449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="21">
         <v>199</v>
       </c>
@@ -7412,7 +7463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="23">
         <v>200</v>
       </c>
@@ -7427,8 +7478,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J20:M20"/>
+  <mergeCells count="4">
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="M16:Q16"/>
@@ -7447,26 +7497,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978AFDEC-252D-9F4B-B755-504BCF5644C6}">
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.08203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="11" style="6"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -7476,7 +7529,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="34" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="33.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>24</v>
       </c>
@@ -7487,20 +7540,30 @@
       <c r="G3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="I3" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
@@ -7514,9 +7577,19 @@
         <v>4</v>
       </c>
       <c r="I5" s="2"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
       <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -7529,8 +7602,22 @@
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -7543,8 +7630,23 @@
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
+        <f>_xlfn.BINOM.DIST.RANGE(14,0.1735,H7)</f>
+        <v>6.9406478610170644E-2</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -7557,8 +7659,15 @@
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
+        <f>_xlfn.BINOM.DIST.RANGE(14,0.1735,H8)</f>
+        <v>0.2039786286075069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -7571,10 +7680,17 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H9" s="28">
+        <v>2</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" ref="I9:I21" si="0">_xlfn.BINOM.DIST.RANGE(14,0.1735,H9)</f>
+        <v>0.27832655585252986</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -7587,10 +7703,17 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H10" s="28">
+        <v>3</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="0"/>
+        <v>0.23370675107278363</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -7603,8 +7726,15 @@
       <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H11" s="28">
+        <v>4</v>
+      </c>
+      <c r="I11" s="31">
+        <f t="shared" si="0"/>
+        <v>0.13491510418100652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -7617,9 +7747,16 @@
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H12" s="28">
+        <v>5</v>
+      </c>
+      <c r="I12" s="31">
+        <f t="shared" si="0"/>
+        <v>5.6643122989484901E-2</v>
+      </c>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -7632,8 +7769,15 @@
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H13" s="28">
+        <v>6</v>
+      </c>
+      <c r="I13" s="31">
+        <f t="shared" si="0"/>
+        <v>1.7835901703585535E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
         <v>9</v>
       </c>
@@ -7646,8 +7790,15 @@
       <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H14" s="28">
+        <v>7</v>
+      </c>
+      <c r="I14" s="31">
+        <f>_xlfn.BINOM.DIST.RANGE(14,0.1735,H14)</f>
+        <v>4.27901332029673E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>10</v>
       </c>
@@ -7660,8 +7811,25 @@
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H15" s="28">
+        <v>8</v>
+      </c>
+      <c r="I15" s="31">
+        <f t="shared" si="0"/>
+        <v>7.8597424039630632E-4</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="51">
+        <f>SUM(I14:I21)</f>
+        <v>5.1874569829318063E-3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>11</v>
       </c>
@@ -7674,8 +7842,25 @@
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="28">
+        <v>9</v>
+      </c>
+      <c r="I16" s="31">
+        <f t="shared" si="0"/>
+        <v>1.099951850847016E-4</v>
+      </c>
+      <c r="L16" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="51">
+        <f>SUM(I10:I21)</f>
+        <v>0.44828833692979225</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <v>12</v>
       </c>
@@ -7688,8 +7873,15 @@
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="28">
+        <v>10</v>
+      </c>
+      <c r="I17" s="31">
+        <f t="shared" si="0"/>
+        <v>1.1545169154383409E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21">
         <v>13</v>
       </c>
@@ -7702,9 +7894,22 @@
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="28">
+        <v>11</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="0"/>
+        <v>8.8130092868526386E-7</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="37">
+        <f>M15/M16</f>
+        <v>1.1571697400069164E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>14</v>
       </c>
@@ -7717,8 +7922,15 @@
       <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="28">
+        <v>12</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="0"/>
+        <v>4.6250971302750595E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <v>15</v>
       </c>
@@ -7731,8 +7943,15 @@
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="28">
+        <v>13</v>
+      </c>
+      <c r="I20" s="31">
+        <f t="shared" si="0"/>
+        <v>1.4937025494024314E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="21">
         <v>16</v>
       </c>
@@ -7745,8 +7964,15 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="28">
+        <v>14</v>
+      </c>
+      <c r="I21" s="31">
+        <f t="shared" si="0"/>
+        <v>2.2397147378906128E-11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="21">
         <v>17</v>
       </c>
@@ -7760,7 +7986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="21">
         <v>18</v>
       </c>
@@ -7773,8 +7999,13 @@
       <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="L23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>19</v>
       </c>
@@ -7788,7 +8019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>20</v>
       </c>
@@ -7801,8 +8032,11 @@
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G25" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>21</v>
       </c>
@@ -7816,7 +8050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>22</v>
       </c>
@@ -7829,8 +8063,15 @@
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="L27" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="31">
+        <f>SUM(I14:I21)</f>
+        <v>5.1874569829318063E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>23</v>
       </c>
@@ -7843,8 +8084,15 @@
       <c r="E28" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="L28" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="31">
+        <f>SUM(I10:I21)</f>
+        <v>0.44828833692979225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="21">
         <v>24</v>
       </c>
@@ -7858,7 +8106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21">
         <v>25</v>
       </c>
@@ -7871,8 +8119,15 @@
       <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="L30" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="37">
+        <f>M27/M28</f>
+        <v>1.1571697400069164E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
         <v>26</v>
       </c>
@@ -7886,7 +8141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
         <v>27</v>
       </c>
@@ -7900,7 +8155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="21">
         <v>28</v>
       </c>
@@ -7914,7 +8169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="21">
         <v>29</v>
       </c>
@@ -7928,7 +8183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="21">
         <v>30</v>
       </c>
@@ -7942,7 +8197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="21">
         <v>31</v>
       </c>
@@ -7956,7 +8211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="21">
         <v>32</v>
       </c>
@@ -7970,7 +8225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="21">
         <v>33</v>
       </c>
@@ -7984,7 +8239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="21">
         <v>34</v>
       </c>
@@ -7998,7 +8253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="21">
         <v>35</v>
       </c>
@@ -8013,7 +8268,7 @@
       </c>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="21">
         <v>36</v>
       </c>
@@ -8028,7 +8283,7 @@
       </c>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="21">
         <v>37</v>
       </c>
@@ -8042,7 +8297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="21">
         <v>38</v>
       </c>
@@ -8056,7 +8311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="21">
         <v>39</v>
       </c>
@@ -8070,7 +8325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="21">
         <v>40</v>
       </c>
@@ -8084,7 +8339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="21">
         <v>41</v>
       </c>
@@ -8098,7 +8353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="21">
         <v>42</v>
       </c>
@@ -8112,7 +8367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="21">
         <v>43</v>
       </c>
@@ -8126,7 +8381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="21">
         <v>44</v>
       </c>
@@ -8140,7 +8395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="21">
         <v>45</v>
       </c>
@@ -8154,7 +8409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="21">
         <v>46</v>
       </c>
@@ -8168,7 +8423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="21">
         <v>47</v>
       </c>
@@ -8182,7 +8437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="21">
         <v>48</v>
       </c>
@@ -8196,7 +8451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="21">
         <v>49</v>
       </c>
@@ -8210,7 +8465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="21">
         <v>50</v>
       </c>
@@ -8224,7 +8479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="21">
         <v>51</v>
       </c>
@@ -8238,7 +8493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="21">
         <v>52</v>
       </c>
@@ -8252,7 +8507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="21">
         <v>53</v>
       </c>
@@ -8266,7 +8521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="21">
         <v>54</v>
       </c>
@@ -8280,7 +8535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="21">
         <v>55</v>
       </c>
@@ -8294,7 +8549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="21">
         <v>56</v>
       </c>
@@ -8308,7 +8563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="21">
         <v>57</v>
       </c>
@@ -8322,7 +8577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="21">
         <v>58</v>
       </c>
@@ -8336,7 +8591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="21">
         <v>59</v>
       </c>
@@ -8350,7 +8605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="21">
         <v>60</v>
       </c>
@@ -8364,7 +8619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="21">
         <v>61</v>
       </c>
@@ -8378,7 +8633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="21">
         <v>62</v>
       </c>
@@ -8392,7 +8647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="21">
         <v>63</v>
       </c>
@@ -8406,7 +8661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="21">
         <v>64</v>
       </c>
@@ -8420,7 +8675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="21">
         <v>65</v>
       </c>
@@ -8434,7 +8689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="21">
         <v>66</v>
       </c>
@@ -8448,7 +8703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="21">
         <v>67</v>
       </c>
@@ -8462,7 +8717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="21">
         <v>68</v>
       </c>
@@ -8476,7 +8731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="21">
         <v>69</v>
       </c>
@@ -8490,7 +8745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="21">
         <v>70</v>
       </c>
@@ -8504,7 +8759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="21">
         <v>71</v>
       </c>
@@ -8518,7 +8773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="21">
         <v>72</v>
       </c>
@@ -8532,7 +8787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="21">
         <v>73</v>
       </c>
@@ -8546,7 +8801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="21">
         <v>74</v>
       </c>
@@ -8560,7 +8815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="21">
         <v>75</v>
       </c>
@@ -8574,7 +8829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="21">
         <v>76</v>
       </c>
@@ -8588,7 +8843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="21">
         <v>77</v>
       </c>
@@ -8602,7 +8857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="21">
         <v>78</v>
       </c>
@@ -8616,7 +8871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="21">
         <v>79</v>
       </c>
@@ -8630,7 +8885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="21">
         <v>80</v>
       </c>
@@ -8644,7 +8899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="21">
         <v>81</v>
       </c>
@@ -8658,7 +8913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="21">
         <v>82</v>
       </c>
@@ -8672,7 +8927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="21">
         <v>83</v>
       </c>
@@ -8686,7 +8941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="21">
         <v>84</v>
       </c>
@@ -8700,7 +8955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="21">
         <v>85</v>
       </c>
@@ -8714,7 +8969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="21">
         <v>86</v>
       </c>
@@ -8728,7 +8983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="21">
         <v>87</v>
       </c>
@@ -8742,7 +8997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="21">
         <v>88</v>
       </c>
@@ -8756,7 +9011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="21">
         <v>89</v>
       </c>
@@ -8770,7 +9025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="21">
         <v>90</v>
       </c>
@@ -8784,7 +9039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="21">
         <v>91</v>
       </c>
@@ -8798,7 +9053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="21">
         <v>92</v>
       </c>
@@ -8812,7 +9067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="21">
         <v>93</v>
       </c>
@@ -8826,7 +9081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="21">
         <v>94</v>
       </c>
@@ -8840,7 +9095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="21">
         <v>95</v>
       </c>
@@ -8854,7 +9109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="21">
         <v>96</v>
       </c>
@@ -8868,7 +9123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="21">
         <v>97</v>
       </c>
@@ -8882,7 +9137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="21">
         <v>98</v>
       </c>
@@ -8896,7 +9151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="21">
         <v>99</v>
       </c>
@@ -8910,7 +9165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="21">
         <v>100</v>
       </c>
@@ -8924,7 +9179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="21">
         <v>101</v>
       </c>
@@ -8938,7 +9193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="21">
         <v>102</v>
       </c>
@@ -8952,7 +9207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="21">
         <v>103</v>
       </c>
@@ -8966,7 +9221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="21">
         <v>104</v>
       </c>
@@ -8980,7 +9235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="21">
         <v>105</v>
       </c>
@@ -8994,7 +9249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="21">
         <v>106</v>
       </c>
@@ -9008,7 +9263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="21">
         <v>107</v>
       </c>
@@ -9022,7 +9277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="21">
         <v>108</v>
       </c>
@@ -9036,7 +9291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="21">
         <v>109</v>
       </c>
@@ -9050,7 +9305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="21">
         <v>110</v>
       </c>
@@ -9064,7 +9319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="21">
         <v>111</v>
       </c>
@@ -9078,7 +9333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="21">
         <v>112</v>
       </c>
@@ -9092,7 +9347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="21">
         <v>113</v>
       </c>
@@ -9106,7 +9361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="21">
         <v>114</v>
       </c>
@@ -9120,7 +9375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="21">
         <v>115</v>
       </c>
@@ -9134,7 +9389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="21">
         <v>116</v>
       </c>
@@ -9148,7 +9403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="21">
         <v>117</v>
       </c>
@@ -9162,7 +9417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="21">
         <v>118</v>
       </c>
@@ -9176,7 +9431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="21">
         <v>119</v>
       </c>
@@ -9190,7 +9445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="21">
         <v>120</v>
       </c>
@@ -9204,7 +9459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="21">
         <v>121</v>
       </c>
@@ -9218,7 +9473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="21">
         <v>122</v>
       </c>
@@ -9232,7 +9487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="21">
         <v>123</v>
       </c>
@@ -9246,7 +9501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="21">
         <v>124</v>
       </c>
@@ -9260,7 +9515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="21">
         <v>125</v>
       </c>
@@ -9274,7 +9529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="21">
         <v>126</v>
       </c>
@@ -9288,7 +9543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="21">
         <v>127</v>
       </c>
@@ -9302,7 +9557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="21">
         <v>128</v>
       </c>
@@ -9316,7 +9571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="21">
         <v>129</v>
       </c>
@@ -9330,7 +9585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="21">
         <v>130</v>
       </c>
@@ -9344,7 +9599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="21">
         <v>131</v>
       </c>
@@ -9358,7 +9613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="21">
         <v>132</v>
       </c>
@@ -9372,7 +9627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="21">
         <v>133</v>
       </c>
@@ -9386,7 +9641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="21">
         <v>134</v>
       </c>
@@ -9400,7 +9655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="21">
         <v>135</v>
       </c>
@@ -9414,7 +9669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="21">
         <v>136</v>
       </c>
@@ -9428,7 +9683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="21">
         <v>137</v>
       </c>
@@ -9442,7 +9697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="21">
         <v>138</v>
       </c>
@@ -9456,7 +9711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="21">
         <v>139</v>
       </c>
@@ -9470,7 +9725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="21">
         <v>140</v>
       </c>
@@ -9484,7 +9739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="21">
         <v>141</v>
       </c>
@@ -9498,7 +9753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="21">
         <v>142</v>
       </c>
@@ -9512,7 +9767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="21">
         <v>143</v>
       </c>
@@ -9526,7 +9781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="21">
         <v>144</v>
       </c>
@@ -9540,7 +9795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="21">
         <v>145</v>
       </c>
@@ -9554,7 +9809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="21">
         <v>146</v>
       </c>
@@ -9568,7 +9823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="21">
         <v>147</v>
       </c>
@@ -9582,7 +9837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="21">
         <v>148</v>
       </c>
@@ -9596,7 +9851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="21">
         <v>149</v>
       </c>
@@ -9610,7 +9865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="21">
         <v>150</v>
       </c>
@@ -9624,7 +9879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="21">
         <v>151</v>
       </c>
@@ -9638,7 +9893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="21">
         <v>152</v>
       </c>
@@ -9652,7 +9907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="21">
         <v>153</v>
       </c>
@@ -9666,7 +9921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="21">
         <v>154</v>
       </c>
@@ -9680,7 +9935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="21">
         <v>155</v>
       </c>
@@ -9694,7 +9949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="21">
         <v>156</v>
       </c>
@@ -9708,7 +9963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="21">
         <v>157</v>
       </c>
@@ -9722,7 +9977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="21">
         <v>158</v>
       </c>
@@ -9736,7 +9991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="21">
         <v>159</v>
       </c>
@@ -9750,7 +10005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="21">
         <v>160</v>
       </c>
@@ -9764,7 +10019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="21">
         <v>161</v>
       </c>
@@ -9778,7 +10033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="21">
         <v>162</v>
       </c>
@@ -9792,7 +10047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="21">
         <v>163</v>
       </c>
@@ -9806,7 +10061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="21">
         <v>164</v>
       </c>
@@ -9820,7 +10075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="21">
         <v>165</v>
       </c>
@@ -9834,7 +10089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="21">
         <v>166</v>
       </c>
@@ -9848,7 +10103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="21">
         <v>167</v>
       </c>
@@ -9862,7 +10117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="21">
         <v>168</v>
       </c>
@@ -9876,7 +10131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="21">
         <v>169</v>
       </c>
@@ -9890,7 +10145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="21">
         <v>170</v>
       </c>
@@ -9904,7 +10159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="21">
         <v>171</v>
       </c>
@@ -9918,7 +10173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="21">
         <v>172</v>
       </c>
@@ -9932,7 +10187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="21">
         <v>173</v>
       </c>
@@ -9946,7 +10201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="21">
         <v>174</v>
       </c>
@@ -9960,7 +10215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="21">
         <v>175</v>
       </c>
@@ -9974,7 +10229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="21">
         <v>176</v>
       </c>
@@ -9988,7 +10243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="21">
         <v>177</v>
       </c>
@@ -10002,7 +10257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="21">
         <v>178</v>
       </c>
@@ -10016,7 +10271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="21">
         <v>179</v>
       </c>
@@ -10030,7 +10285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="21">
         <v>180</v>
       </c>
@@ -10044,7 +10299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="21">
         <v>181</v>
       </c>
@@ -10058,7 +10313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="21">
         <v>182</v>
       </c>
@@ -10072,7 +10327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="21">
         <v>183</v>
       </c>
@@ -10086,7 +10341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="21">
         <v>184</v>
       </c>
@@ -10100,7 +10355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="21">
         <v>185</v>
       </c>
@@ -10114,7 +10369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="21">
         <v>186</v>
       </c>
@@ -10128,7 +10383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="21">
         <v>187</v>
       </c>
@@ -10142,7 +10397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="21">
         <v>188</v>
       </c>
@@ -10156,7 +10411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="21">
         <v>189</v>
       </c>
@@ -10170,7 +10425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="21">
         <v>190</v>
       </c>
@@ -10184,7 +10439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="21">
         <v>191</v>
       </c>
@@ -10198,7 +10453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="21">
         <v>192</v>
       </c>
@@ -10212,7 +10467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="21">
         <v>193</v>
       </c>
@@ -10226,7 +10481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="21">
         <v>194</v>
       </c>
@@ -10240,7 +10495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="21">
         <v>195</v>
       </c>
@@ -10254,7 +10509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="21">
         <v>196</v>
       </c>
@@ -10268,7 +10523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="21">
         <v>197</v>
       </c>
@@ -10282,7 +10537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="21">
         <v>198</v>
       </c>
@@ -10296,7 +10551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="21">
         <v>199</v>
       </c>
@@ -10310,7 +10565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="23">
         <v>200</v>
       </c>
@@ -10325,10 +10580,15 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I3:M3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10337,23 +10597,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B125A5-FAE3-374C-9F53-323ACE2E7519}">
   <dimension ref="A1:Y203"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="11" style="6"/>
     <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="11" style="6"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -10363,7 +10623,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -10375,616 +10635,616 @@
       <c r="N3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="I5" s="2"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="13"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="13"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="13"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="13"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="13"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="13"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="13"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="13"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="13"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="13"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="13"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="13"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="13"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="13"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="13"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="13"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="13"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="13"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="13"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="13"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="13"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="13"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="13"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="13"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="13"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="13"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="13"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="13"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="13"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="13"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="13"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="13"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="13"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="13"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="13"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="13"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="13"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="13"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="13"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="13"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="13"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="13"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="13"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="13"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="13"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="13"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="13"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="13"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="13"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="13"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="13"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="13"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="13"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="13"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="13"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="13"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="13"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="13"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="13"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="13"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="13"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="13"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="13"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="13"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="13"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="13"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="13"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="13"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="13"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="13"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="13"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="13"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="13"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="13"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="13"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="13"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="13"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="13"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="13"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="13"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="13"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="13"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="13"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="13"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="13"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="13"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="13"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="13"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="13"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="13"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="13"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="13"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="13"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="13"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="13"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="13"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="13"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="13"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="13"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="13"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="13"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="13"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="13"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="13"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="13"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="13"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="13"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="13"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="13"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="13"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="13"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="13"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="13"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="13"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="13"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="13"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="13"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="13"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="13"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="13"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="13"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="13"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="13"/>
     </row>
   </sheetData>

--- a/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
+++ b/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\joao\src\Github\ISEP-MATCP-2022-2023\Trabalho 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADF958F-5445-477C-8128-C30A27FFB080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09D9FF-A9C3-41A3-A3D7-FC031CBBACF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
   </bookViews>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -550,6 +550,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,16 +567,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,14 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -4295,8 +4287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A990CD-725A-0E49-A453-E6B6F139DF19}">
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4533,11 +4525,11 @@
         <v>12</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -4558,11 +4550,11 @@
         <v>12</v>
       </c>
       <c r="G10"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -4727,9 +4719,6 @@
       <c r="G16" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
       <c r="M16" s="45" t="s">
         <v>34</v>
       </c>
@@ -4762,7 +4751,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="48">
+      <c r="R17" s="38">
         <f>I14</f>
         <v>0.21428571428571427</v>
       </c>
@@ -4780,16 +4769,16 @@
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="21">
@@ -4804,14 +4793,13 @@
       <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="21">
@@ -4826,12 +4814,16 @@
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20">
+        <f>R17*R17/R16</f>
+        <v>9.3710953769262806E-2</v>
+      </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="21">
@@ -4846,7 +4838,7 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="49"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="21">

--- a/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
+++ b/Trabalho 1/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\joao\src\Github\ISEP-MATCP-2022-2023\Trabalho 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B28B91-7A7C-42DF-AB4C-42548DE9D010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8A8E7-57AB-4AC8-97C3-6991526C096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="2" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="1" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="1DXXX_dados" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="48">
   <si>
     <t>Número</t>
   </si>
@@ -120,9 +120,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>X =  o número de clientes que compra um apartamento T5</t>
-  </si>
-  <si>
     <t>f(X) - Probabilidade da ocorrência de X</t>
   </si>
   <si>
@@ -138,19 +135,7 @@
     <t>P(T0) - probabilidade de um apartamento ser T0</t>
   </si>
   <si>
-    <t>P(T0 | venda)  =  P(T0) ∩ P(venda) / P(venda)</t>
-  </si>
-  <si>
-    <t>casos totais</t>
-  </si>
-  <si>
-    <t>casos favoraveis</t>
-  </si>
-  <si>
     <t>Solução?</t>
-  </si>
-  <si>
-    <t>P(X&gt;=7 | X&gt;=3)  =  P(X&gt;=7) ∩ P(X&gt;=3) / P(X&gt;=3)</t>
   </si>
   <si>
     <t xml:space="preserve">P(X&gt;=7) </t>
@@ -162,13 +147,31 @@
     <t>f(X)</t>
   </si>
   <si>
-    <t>Solução</t>
+    <t>Distribuição Binominal</t>
   </si>
   <si>
-    <t>somatorio(3-14)</t>
+    <t>X ~ Bi (14;0,1735)</t>
   </si>
   <si>
-    <t>somatorio(7-14)</t>
+    <t>P(T5)</t>
+  </si>
+  <si>
+    <t>P(X&gt;=7) ∩ P(X&gt;=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P(X&gt;=7) ∩ P(X&gt;=3) / P(X&gt;=3)</t>
+  </si>
+  <si>
+    <t>obv: somatorio(3-14)</t>
+  </si>
+  <si>
+    <t>obv: somatorio(7-14)</t>
+  </si>
+  <si>
+    <t>X =  Representa o numero de clientes, em 14 selecionados, que compra um T5</t>
+  </si>
+  <si>
+    <t>P(T0) ∩ P(venda)</t>
   </si>
 </sst>
 </file>
@@ -178,9 +181,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +265,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -294,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -480,13 +490,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -585,7 +670,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -606,27 +702,87 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1090,6 +1246,1368 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25221</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3807037" cy="389396"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2644A4E-D278-166D-7584-A7606D3A0606}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6858001" y="3801603"/>
+              <a:ext cx="3807037" cy="389396"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pt-PT" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>T</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>0 |</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pt-PT" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>venda</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pt-PT" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>) = </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1200" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> ∩</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑣𝑒𝑛𝑑𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑣𝑒𝑛𝑑𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pt-PT" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>  = </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1200" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0,105</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0,49</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pt-PT" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> = 0,</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>2143</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2644A4E-D278-166D-7584-A7606D3A0606}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6858001" y="3801603"/>
+              <a:ext cx="3807037" cy="389396"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑃(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>T0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> | </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>venda</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>) = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (𝑃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑇0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ∩</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑣𝑒𝑛𝑑𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>))/(𝑃(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑣𝑒𝑛𝑑𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 0,105</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0,49</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 0,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2143</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3971924" cy="343171"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB919D1-330A-517A-5AA8-840156D95E47}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10467976" y="2066926"/>
+              <a:ext cx="3971924" cy="343171"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑃</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> x ≥ 7 | x ≥ 3) = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pt-PT" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>≥7 ∩</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>≥3)</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>≥3)</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pt-PT" sz="1400" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>≥7)</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1400" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>≥3)</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 0,0116</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB919D1-330A-517A-5AA8-840156D95E47}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10467976" y="2066926"/>
+              <a:ext cx="3971924" cy="343171"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑃(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> x ≥ 7 | x ≥ 3) = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑃(𝑋≥7 ∩𝑋≥3))/(𝑃(𝑋≥3))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑃(𝑋≥7))/(𝑃(𝑋≥3))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = 0,0116</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D3AD503-C849-094D-AE19-CCC9B0D89FA2}" name="Tabela1" displayName="Tabela1" ref="E3:H203" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="4">
@@ -1426,7 +2944,7 @@
   <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="G4" sqref="G4:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4339,8 +5857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A990CD-725A-0E49-A453-E6B6F139DF19}">
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4355,6 +5873,7 @@
     <col min="12" max="12" width="10.875"/>
     <col min="13" max="13" width="12.125" customWidth="1"/>
     <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.875"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
@@ -4383,12 +5902,19 @@
       <c r="G3" s="30" t="s">
         <v>23</v>
       </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="N3" s="12"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="28"/>
@@ -4413,6 +5939,13 @@
       <c r="O4" s="33" t="s">
         <v>25</v>
       </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -4458,6 +5991,8 @@
         <f>SUM(I5:N5)</f>
         <v>98</v>
       </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
@@ -4503,6 +6038,8 @@
         <f>SUM(I6:N6)</f>
         <v>102</v>
       </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
@@ -4548,6 +6085,8 @@
         <f t="shared" ref="O7" si="5">SUM(O5:O6)</f>
         <v>200</v>
       </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21">
@@ -4562,6 +6101,16 @@
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
@@ -4576,17 +6125,18 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9"/>
-      <c r="H9" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="H9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
@@ -4601,17 +6151,18 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10"/>
-      <c r="H10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
+      <c r="H10" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
@@ -4634,6 +6185,8 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
@@ -4656,6 +6209,8 @@
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
       <c r="O12" s="35"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -4695,6 +6250,8 @@
       <c r="O13" s="36" t="s">
         <v>25</v>
       </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
@@ -4710,36 +6267,38 @@
         <v>12</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="46">
+        <v>31</v>
+      </c>
+      <c r="I14" s="40">
         <f>I5/$O5</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="40">
         <f t="shared" ref="J14:N14" si="6">J5/$O5</f>
         <v>0.20408163265306123</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="40">
         <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="40">
         <f t="shared" si="6"/>
         <v>0.1326530612244898</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="40">
         <f t="shared" si="6"/>
         <v>0.1326530612244898</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="40">
         <f t="shared" si="6"/>
         <v>0.17346938775510204</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="39">
         <f>SUM(I14:N14)</f>
         <v>1.0000000000000002</v>
       </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21">
@@ -4754,6 +6313,16 @@
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21">
@@ -4771,17 +6340,18 @@
       <c r="G16" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44"/>
-      <c r="R16">
-        <f>O5/O7</f>
-        <v>0.49</v>
-      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
     </row>
     <row r="17" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
@@ -4796,17 +6366,19 @@
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="37">
-        <f>I7/O7</f>
-        <v>0.215</v>
-      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="37"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
@@ -4821,18 +6393,18 @@
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21">
         <v>14</v>
       </c>
@@ -4845,15 +6417,18 @@
       <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
-    </row>
-    <row r="20" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <v>15</v>
       </c>
@@ -4866,12 +6441,18 @@
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-    </row>
-    <row r="21" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="21">
         <v>16</v>
       </c>
@@ -4884,15 +6465,18 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21">
-        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T0")/O5</f>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="53"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="21">
         <v>17</v>
       </c>
@@ -4905,13 +6489,16 @@
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22">
-        <f>R16*R17/R16</f>
-        <v>0.215</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="21">
@@ -4926,6 +6513,21 @@
       <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H23" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="29">
+        <f>O5/O7</f>
+        <v>0.49</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
@@ -4940,8 +6542,23 @@
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H24" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="31">
+        <f>I7/O7</f>
+        <v>0.215</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21">
         <v>20</v>
       </c>
@@ -4954,8 +6571,18 @@
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21">
         <v>21</v>
       </c>
@@ -4968,8 +6595,23 @@
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H26" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="71">
+        <f>I5/O7</f>
+        <v>0.105</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21">
         <v>22</v>
       </c>
@@ -4982,6 +6624,21 @@
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="74">
+        <f>I26/M23</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
@@ -4996,6 +6653,16 @@
       <c r="E28" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
@@ -5010,6 +6677,16 @@
       <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
@@ -5024,6 +6701,16 @@
       <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
@@ -7478,7 +9165,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H18:K19"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="M16:Q16"/>
@@ -7487,8 +9177,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7497,8 +9188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978AFDEC-252D-9F4B-B755-504BCF5644C6}">
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7511,7 +9202,7 @@
     <col min="7" max="7" width="11" style="6"/>
     <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
     <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
   </cols>
@@ -7541,29 +9232,30 @@
         <v>23</v>
       </c>
       <c r="I3" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
@@ -7576,20 +9268,25 @@
       <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="52"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="K5" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="49"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -7606,16 +9303,22 @@
         <v>29</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="N6" s="57">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
@@ -7637,14 +9340,14 @@
         <f>_xlfn.BINOM.DIST.RANGE(14,0.1735,H7)</f>
         <v>6.9406478610170644E-2</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
@@ -7663,11 +9366,11 @@
         <v>1</v>
       </c>
       <c r="I8" s="31">
-        <f>_xlfn.BINOM.DIST.RANGE(14,0.1735,H8)</f>
+        <f t="shared" ref="I8:I21" si="0">_xlfn.BINOM.DIST.RANGE(14,0.1735,H8)</f>
         <v>0.2039786286075069</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -7684,7 +9387,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="31">
-        <f t="shared" ref="I9:I21" si="0">_xlfn.BINOM.DIST.RANGE(14,0.1735,H9)</f>
+        <f t="shared" si="0"/>
         <v>0.27832655585252986</v>
       </c>
       <c r="J9" s="15"/>
@@ -7711,9 +9414,13 @@
         <v>0.23370675107278363</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -7733,6 +9440,11 @@
         <f t="shared" si="0"/>
         <v>0.13491510418100652</v>
       </c>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
@@ -7794,7 +9506,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="31">
-        <f>_xlfn.BINOM.DIST.RANGE(14,0.1735,H14)</f>
+        <f t="shared" si="0"/>
         <v>4.27901332029673E-3</v>
       </c>
     </row>
@@ -7818,15 +9530,15 @@
         <f t="shared" si="0"/>
         <v>7.8597424039630632E-4</v>
       </c>
-      <c r="L15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="51">
+      <c r="L15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="31">
         <f>SUM(I14:I21)</f>
         <v>5.1874569829318063E-3</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -7849,18 +9561,18 @@
         <f t="shared" si="0"/>
         <v>1.099951850847016E-4</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="31">
         <f>SUM(I10:I21)</f>
         <v>0.44828833692979225</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>12</v>
       </c>
@@ -7880,8 +9592,10 @@
         <f t="shared" si="0"/>
         <v>1.1545169154383409E-5</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>13</v>
       </c>
@@ -7901,13 +9615,8 @@
         <f t="shared" si="0"/>
         <v>8.8130092868526386E-7</v>
       </c>
-      <c r="L18" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="37">
-        <f>M15/M16</f>
-        <v>1.1571697400069164E-2</v>
-      </c>
+      <c r="L18" s="53"/>
+      <c r="M18" s="52"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
@@ -7929,6 +9638,13 @@
         <f t="shared" si="0"/>
         <v>4.6250971302750595E-8</v>
       </c>
+      <c r="L19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="42">
+        <f>M15</f>
+        <v>5.1874569829318063E-3</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
@@ -7985,6 +9701,14 @@
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="L22" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62">
+        <f>M19/M16</f>
+        <v>1.1571697400069164E-2</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="21">
@@ -7999,11 +9723,9 @@
       <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
@@ -8063,13 +9785,8 @@
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="31">
-        <f>SUM(I14:I21)</f>
-        <v>5.1874569829318063E-3</v>
-      </c>
+      <c r="L27" s="59"/>
+      <c r="M27" s="60"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
@@ -8084,15 +9801,10 @@
       <c r="E28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="31">
-        <f>SUM(I10:I21)</f>
-        <v>0.44828833692979225</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="59"/>
+      <c r="M28" s="60"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>24</v>
       </c>
@@ -8106,7 +9818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
         <v>25</v>
       </c>
@@ -8119,13 +9831,8 @@
       <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" s="37">
-        <f>M27/M28</f>
-        <v>1.1571697400069164E-2</v>
-      </c>
+      <c r="L30" s="59"/>
+      <c r="M30" s="52"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
@@ -10580,15 +12287,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I3:M3"/>
+  <mergeCells count="7">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="K10:N11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
